--- a/LangtjernLake/LangtjernValidationDO.xlsx
+++ b/LangtjernLake/LangtjernValidationDO.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\SOS\LangtjernLake\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28455" windowHeight="2580"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28452" windowHeight="2580"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>datetime</t>
   </si>
@@ -24,17 +29,17 @@
     <t>wtr</t>
   </si>
   <si>
-    <t>DOC_conc</t>
-  </si>
-  <si>
-    <t>CONCENTRACIÓN NO SIRBE</t>
+    <t>DO_conc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,27 +47,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,20 +68,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -137,7 +135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -169,9 +167,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,6 +202,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -378,19 +378,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D876"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C876"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="B2:C384"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,6187 +401,6184 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>41130</v>
       </c>
       <c r="B2" s="3">
         <v>15.7870833333333</v>
       </c>
-      <c r="C2" s="1">
-        <v>72.953645833333297</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="C2" s="3">
+        <v>7.2333730675265873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>41131</v>
       </c>
       <c r="B3" s="3">
         <v>15.977812500000001</v>
       </c>
-      <c r="C3" s="1">
-        <v>68.812083333333305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="C3" s="3">
+        <v>6.7951214277532612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>41132</v>
       </c>
       <c r="B4" s="3">
         <v>15.7854166666667</v>
       </c>
-      <c r="C4" s="1">
-        <v>72.762708333333293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="C4" s="3">
+        <v>7.2146976661319204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>41133</v>
       </c>
       <c r="B5" s="3">
         <v>17.190312500000001</v>
       </c>
-      <c r="C5" s="1">
-        <v>71.733333333333306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5" s="3">
+        <v>6.9053856140614798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>41134</v>
       </c>
       <c r="B6" s="3">
         <v>18.180660860655699</v>
       </c>
-      <c r="C6" s="1">
-        <v>71.660416666666706</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6" s="3">
+        <v>6.7588497199605708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>41135</v>
       </c>
       <c r="B7" s="3">
         <v>18.0244672131148</v>
       </c>
-      <c r="C7" s="1">
-        <v>71.032395833333297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" s="3">
+        <v>6.7210910715040457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>41136</v>
       </c>
       <c r="B8" s="3">
         <v>17.892663934426199</v>
       </c>
-      <c r="C8" s="1">
-        <v>69.4030208333334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C8" s="3">
+        <v>6.5847198014046793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>41137</v>
       </c>
       <c r="B9" s="3">
         <v>17.760860655737702</v>
       </c>
-      <c r="C9" s="1">
-        <v>71.504791666666705</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="C9" s="3">
+        <v>6.8025577828591066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>41138</v>
       </c>
       <c r="B10" s="3">
         <v>17.6290573770492</v>
       </c>
-      <c r="C10" s="1">
-        <v>62.646979166666704</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="C10" s="3">
+        <v>5.9761015356191072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>41139</v>
       </c>
       <c r="B11" s="3">
         <v>17.497254098360699</v>
       </c>
-      <c r="C11" s="1">
-        <v>73.177291666666704</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="C11" s="3">
+        <v>6.9996687291331368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>41140</v>
       </c>
       <c r="B12" s="3">
         <v>17.365450819672098</v>
       </c>
-      <c r="C12" s="1">
-        <v>70.7480208333333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="C12" s="3">
+        <v>6.7858048165969409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>41141</v>
       </c>
       <c r="B13" s="3">
         <v>17.233647540983601</v>
       </c>
-      <c r="C13" s="1">
-        <v>70.494895833333302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="C13" s="3">
+        <v>6.7800556523090858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>41142</v>
       </c>
       <c r="B14" s="3">
         <v>17.101844262295099</v>
       </c>
-      <c r="C14" s="1">
-        <v>65.631979166666696</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="C14" s="3">
+        <v>6.3296867401441137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>41143</v>
       </c>
       <c r="B15" s="3">
         <v>16.970040983606602</v>
       </c>
-      <c r="C15" s="1">
-        <v>68.537812500000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="C15" s="3">
+        <v>6.6281253094064665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>41144</v>
       </c>
       <c r="B16" s="3">
         <v>16.865614754098399</v>
       </c>
-      <c r="C16" s="1">
-        <v>69.897812500000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="3">
+        <v>6.7744138588746292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>41145</v>
       </c>
       <c r="B17" s="3">
         <v>16.710416666666699</v>
       </c>
-      <c r="C17" s="1">
-        <v>65.080893640350894</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="3">
+        <v>6.3280971741089225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>41146</v>
       </c>
       <c r="B18" s="3">
         <v>16.406354166666699</v>
       </c>
-      <c r="C18" s="1">
-        <v>65.930460526315798</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="3">
+        <v>6.4518136129211401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>41147</v>
       </c>
       <c r="B19" s="3">
         <v>16.093854166666699</v>
       </c>
-      <c r="C19" s="1">
-        <v>68.819934210526299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" s="3">
+        <v>6.7791919202030533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>41148</v>
       </c>
       <c r="B20" s="3">
         <v>15.1640625</v>
       </c>
-      <c r="C20" s="1">
-        <v>71.522253289473696</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="3">
+        <v>7.1866840777716119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>41149</v>
       </c>
       <c r="B21" s="3">
         <v>14.71</v>
       </c>
-      <c r="C21" s="1">
-        <v>68.841458333333307</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="3">
+        <v>6.9855219375074151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>41150</v>
       </c>
       <c r="B22" s="3">
         <v>13.944375000000001</v>
       </c>
-      <c r="C22" s="1">
-        <v>62.090409946236598</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="3">
+        <v>6.4067056888887342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>41151</v>
       </c>
       <c r="B23" s="3">
         <v>13.923125000000001</v>
       </c>
-      <c r="C23" s="1">
-        <v>63.904435483870998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" s="3">
+        <v>6.5969648155532186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>41152</v>
       </c>
       <c r="B24" s="3">
         <v>13.62875</v>
       </c>
-      <c r="C24" s="1">
-        <v>63.854112903225797</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" s="3">
+        <v>6.6346922592645612</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>41153</v>
       </c>
       <c r="B25" s="3">
         <v>13.6219791666667</v>
       </c>
-      <c r="C25" s="1">
-        <v>63.803790322580603</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="3">
+        <v>6.6304558867806955</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>41154</v>
       </c>
       <c r="B26" s="3">
         <v>14.190729166666699</v>
       </c>
-      <c r="C26" s="1">
-        <v>63.753467741935502</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" s="3">
+        <v>6.5428512961437697</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>41155</v>
       </c>
       <c r="B27" s="3">
         <v>13.8051041666667</v>
       </c>
-      <c r="C27" s="1">
-        <v>64.893262768817195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="3">
+        <v>6.7164708355237464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>41156</v>
       </c>
       <c r="B28" s="3">
         <v>14.1196875</v>
       </c>
-      <c r="C28" s="1">
-        <v>69.125520833333297</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="3">
+        <v>7.1052184989205465</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>41157</v>
       </c>
       <c r="B29" s="3">
         <v>13.3969791666667</v>
       </c>
-      <c r="C29" s="1">
-        <v>74.115833333333299</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" s="3">
+        <v>7.7405599869923867</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>41158</v>
       </c>
       <c r="B30" s="3">
         <v>12.396041666666701</v>
       </c>
-      <c r="C30" s="1">
-        <v>73.176041666666606</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30" s="3">
+        <v>7.8156158777967839</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>41159</v>
       </c>
       <c r="B31" s="3">
         <v>12.0348958333333</v>
       </c>
-      <c r="C31" s="1">
-        <v>73.968020833333298</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="C31" s="3">
+        <v>7.9651195522913012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>41160</v>
       </c>
       <c r="B32" s="3">
         <v>11.676562499999999</v>
       </c>
-      <c r="C32" s="1">
-        <v>73.870520833333302</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="C32" s="3">
+        <v>8.0198880395477783</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>41161</v>
       </c>
       <c r="B33" s="3">
         <v>11.3</v>
       </c>
-      <c r="C33" s="1">
-        <v>73.806041666666701</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="C33" s="3">
+        <v>8.0824465720935397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>41162</v>
       </c>
       <c r="B34" s="3">
         <v>11.5141666666667</v>
       </c>
-      <c r="C34" s="1">
-        <v>75.385625000000005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="C34" s="3">
+        <v>8.2148843715334241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>41163</v>
       </c>
       <c r="B35" s="3">
         <v>11.651666666666699</v>
       </c>
-      <c r="C35" s="1">
-        <v>76.412916666666703</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="C35" s="3">
+        <v>8.3006350931535078</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>41164</v>
       </c>
       <c r="B36" s="3">
         <v>11.1227788978495</v>
       </c>
-      <c r="C36" s="1">
-        <v>74.563854166666701</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="C36" s="3">
+        <v>8.1988820599787857</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>41165</v>
       </c>
       <c r="B37" s="3">
         <v>10.838427419354799</v>
       </c>
-      <c r="C37" s="1">
-        <v>73.532499999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="C37" s="3">
+        <v>8.1389043838532888</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>41166</v>
       </c>
       <c r="B38" s="3">
         <v>10.646814516129</v>
       </c>
-      <c r="C38" s="1">
-        <v>74.086041666666702</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="C38" s="3">
+        <v>8.2368029337646114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>41167</v>
       </c>
       <c r="B39" s="3">
         <v>10.455201612903201</v>
       </c>
-      <c r="C39" s="1">
-        <v>74.917812499999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="C39" s="3">
+        <v>8.366613221483906</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>41168</v>
       </c>
       <c r="B40" s="3">
         <v>10.2635887096774</v>
       </c>
-      <c r="C40" s="1">
-        <v>73.679479166666596</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="C40" s="3">
+        <v>8.2653292099397913</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>41169</v>
       </c>
       <c r="B41" s="3">
         <v>10.121105510752701</v>
       </c>
-      <c r="C41" s="1">
-        <v>75.414375000000007</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="C41" s="3">
+        <v>8.488312819730842</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41170</v>
       </c>
       <c r="B42" s="3">
         <v>9.7546874999999993</v>
       </c>
-      <c r="C42" s="1">
-        <v>74.174791666666707</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="C42" s="3">
+        <v>8.4212967127139446</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>41171</v>
       </c>
       <c r="B43" s="3">
         <v>9.6943750000000009</v>
       </c>
-      <c r="C43" s="1">
-        <v>74.656041666666695</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="C43" s="3">
+        <v>8.4880535636863765</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>41172</v>
       </c>
       <c r="B44" s="3">
         <v>9.4057291666666707</v>
       </c>
-      <c r="C44" s="1">
-        <v>74.031666666666695</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="C44" s="3">
+        <v>8.4750007079719847</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>41173</v>
       </c>
       <c r="B45" s="3">
         <v>8.8698958333333309</v>
       </c>
-      <c r="C45" s="1">
-        <v>71.574687499999996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="C45" s="3">
+        <v>8.2995264261488444</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>41174</v>
       </c>
       <c r="B46" s="3">
         <v>8.4588541666666703</v>
       </c>
-      <c r="C46" s="1">
-        <v>72.161562500000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="C46" s="3">
+        <v>8.4510498814859645</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>41175</v>
       </c>
       <c r="B47" s="3">
         <v>8.12083333333333</v>
       </c>
-      <c r="C47" s="1">
-        <v>71.272187500000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="C47" s="3">
+        <v>8.4157749713313628</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>41176</v>
       </c>
       <c r="B48" s="3">
         <v>8.1078333333333301</v>
       </c>
-      <c r="C48" s="1">
-        <v>70.618125000000006</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="C48" s="3">
+        <v>8.3411881871188367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>41177</v>
       </c>
       <c r="B49" s="3">
         <v>7.9383437499999996</v>
       </c>
-      <c r="C49" s="1">
-        <v>71.196666666666701</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="C49" s="3">
+        <v>8.4444199137843423</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>41178</v>
       </c>
       <c r="B50" s="3">
         <v>7.7501666666666704</v>
       </c>
-      <c r="C50" s="1">
-        <v>72.048124999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="C50" s="3">
+        <v>8.5849166606082932</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>41179</v>
       </c>
       <c r="B51" s="3">
         <v>7.8033229166666702</v>
       </c>
-      <c r="C51" s="1">
-        <v>72.293541666666698</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="C51" s="3">
+        <v>8.6029288052342228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>41180</v>
       </c>
       <c r="B52" s="3">
         <v>7.8179533991228096</v>
       </c>
-      <c r="C52" s="1">
-        <v>74.962395833333304</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="C52" s="3">
+        <v>8.91732184203169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>41181</v>
       </c>
       <c r="B53" s="3">
         <v>7.81084868421053</v>
       </c>
-      <c r="C53" s="1">
-        <v>75.197187499999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="C53" s="3">
+        <v>8.9468108358373257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>41182</v>
       </c>
       <c r="B54" s="3">
         <v>7.8831644736842099</v>
       </c>
-      <c r="C54" s="1">
-        <v>74.399895833333304</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="C54" s="3">
+        <v>8.8362742382699793</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>41183</v>
       </c>
       <c r="B55" s="3">
         <v>8.0177417763157894</v>
       </c>
-      <c r="C55" s="1">
-        <v>76.167500000000004</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="C55" s="3">
+        <v>9.0164730985250525</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>41184</v>
       </c>
       <c r="B56" s="3">
         <v>8.0132083333333295</v>
       </c>
-      <c r="C56" s="1">
-        <v>76.633020833333305</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="C56" s="3">
+        <v>9.0725850005426096</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>41185</v>
       </c>
       <c r="B57" s="3">
         <v>7.8120729166666703</v>
       </c>
-      <c r="C57" s="1">
-        <v>76.754479166666698</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="C57" s="3">
+        <v>9.131820079558354</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>41186</v>
       </c>
       <c r="B58" s="3">
         <v>7.6881562499999996</v>
       </c>
-      <c r="C58" s="1">
-        <v>77.053020833333306</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="C58" s="3">
+        <v>9.1952747917254296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>41187</v>
       </c>
       <c r="B59" s="3">
         <v>7.5101041666666699</v>
       </c>
-      <c r="C59" s="1">
-        <v>74.669687499999995</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="C59" s="3">
+        <v>8.9500062823485731</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>41188</v>
       </c>
       <c r="B60" s="3">
         <v>7.1516770833333299</v>
       </c>
-      <c r="C60" s="1">
-        <v>76.401666666666699</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="C60" s="3">
+        <v>9.2391810263786436</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>41189</v>
       </c>
       <c r="B61" s="3">
         <v>6.7517916666666702</v>
       </c>
-      <c r="C61" s="1">
-        <v>76.042500000000004</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="C61" s="3">
+        <v>9.2878279279394658</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>41190</v>
       </c>
       <c r="B62" s="3">
         <v>6.2879375</v>
       </c>
-      <c r="C62" s="1">
-        <v>75.704062500000006</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="C62" s="3">
+        <v>9.3548385934089495</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>41191</v>
       </c>
       <c r="B63" s="3">
         <v>5.9865312499999996</v>
       </c>
-      <c r="C63" s="1">
-        <v>74.342395833333299</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="C63" s="3">
+        <v>9.2568751047839211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>41192</v>
       </c>
       <c r="B64" s="3">
         <v>5.9337916666666697</v>
       </c>
-      <c r="C64" s="1">
-        <v>75.586145833333305</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="C64" s="3">
+        <v>9.4243467053981593</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>41193</v>
       </c>
       <c r="B65" s="3">
         <v>5.5616979166666702</v>
       </c>
-      <c r="C65" s="1">
-        <v>74.351145833333305</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="C65" s="3">
+        <v>9.3586543490839116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>41194</v>
       </c>
       <c r="B66" s="3">
         <v>5.1887604166666703</v>
       </c>
-      <c r="C66" s="1">
-        <v>73.716250000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="C66" s="3">
+        <v>9.3679276177825663</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>41195</v>
       </c>
       <c r="B67" s="3">
         <v>4.9646875000000001</v>
       </c>
-      <c r="C67" s="1">
-        <v>74.018749999999997</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="C67" s="3">
+        <v>9.4608916147769957</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>41196</v>
       </c>
       <c r="B68" s="3">
         <v>4.7016875000000002</v>
       </c>
-      <c r="C68" s="1">
-        <v>73.441562500000003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="C68" s="3">
+        <v>9.4513022932983048</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>41197</v>
       </c>
       <c r="B69" s="3">
         <v>4.2389062500000003</v>
       </c>
-      <c r="C69" s="1">
-        <v>73.747604166666704</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="C69" s="3">
+        <v>9.6059513297652064</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>41198</v>
       </c>
       <c r="B70" s="3">
         <v>4.0493229166666698</v>
       </c>
-      <c r="C70" s="1">
-        <v>73.369479166666693</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="C70" s="3">
+        <v>9.6043661453161189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>41199</v>
       </c>
       <c r="B71" s="3">
         <v>3.9912083333333301</v>
       </c>
-      <c r="C71" s="1">
-        <v>72.401770833333302</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="C71" s="3">
+        <v>9.4921886367681978</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>41200</v>
       </c>
       <c r="B72" s="3">
         <v>4.0405208333333302</v>
       </c>
-      <c r="C72" s="1">
-        <v>74.473437500000003</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="C72" s="3">
+        <v>9.7511352656195669</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>41201</v>
       </c>
       <c r="B73" s="3">
         <v>4.0765729166666702</v>
       </c>
-      <c r="C73" s="1">
-        <v>74.405000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="C73" s="3">
+        <v>9.7329465232798285</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>41202</v>
       </c>
       <c r="B74" s="3">
         <v>4.0152395833333303</v>
       </c>
-      <c r="C74" s="1">
-        <v>74.423958333333303</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="C74" s="3">
+        <v>9.7511383203516111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>41203</v>
       </c>
       <c r="B75" s="3">
         <v>3.9923854166666701</v>
       </c>
-      <c r="C75" s="1">
-        <v>74.441354166666699</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="C75" s="3">
+        <v>9.7592845873299865</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>41204</v>
       </c>
       <c r="B76" s="3">
         <v>3.87554166666667</v>
       </c>
-      <c r="C76" s="1">
-        <v>72.257604166666695</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="C76" s="3">
+        <v>9.5022016967412117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>41205</v>
       </c>
       <c r="B77" s="3">
         <v>3.5977916666666698</v>
       </c>
-      <c r="C77" s="1">
-        <v>73.446562499999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="C77" s="3">
+        <v>9.7297570867704213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>41206</v>
       </c>
       <c r="B78" s="3">
         <v>3.4182916666666698</v>
       </c>
-      <c r="C78" s="1">
-        <v>67.791145833333303</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="C78" s="3">
+        <v>9.0234744040151487</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>41207</v>
       </c>
       <c r="B79" s="3">
         <v>3.4117187499999999</v>
       </c>
-      <c r="C79" s="1">
-        <v>73.410729166666698</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="C79" s="3">
+        <v>9.7731889570104702</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>41208</v>
       </c>
       <c r="B80" s="3">
         <v>3.23807291666667</v>
       </c>
-      <c r="C80" s="1">
-        <v>74.446145833333304</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="C80" s="3">
+        <v>9.9570024402080222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>41209</v>
       </c>
       <c r="B81" s="3">
         <v>2.9995208333333299</v>
       </c>
-      <c r="C81" s="1">
-        <v>74.165416666666701</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="C81" s="3">
+        <v>9.9829594303317073</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>41210</v>
       </c>
       <c r="B82" s="3">
         <v>2.9768333333333299</v>
       </c>
-      <c r="C82" s="1">
-        <v>73.344270833333297</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="C82" s="3">
+        <v>9.8784381714874243</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>41211</v>
       </c>
       <c r="B83" s="3">
         <v>3.03861458333333</v>
       </c>
-      <c r="C83" s="1">
-        <v>71.960208333333298</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="C83" s="3">
+        <v>9.6759862558327949</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>41212</v>
       </c>
       <c r="B84" s="3">
         <v>3.0444791666666702</v>
       </c>
-      <c r="C84" s="1">
-        <v>57.266979166666701</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="C84" s="3">
+        <v>7.6990807199770419</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>41213</v>
       </c>
       <c r="B85" s="3">
         <v>3.10582291666667</v>
       </c>
-      <c r="C85" s="1">
-        <v>54.626666666666701</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="C85" s="3">
+        <v>7.3320603811243439</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>41214</v>
       </c>
       <c r="B86" s="3">
         <v>3.1038125000000001</v>
       </c>
-      <c r="C86" s="1">
-        <v>57.844374999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="C86" s="3">
+        <v>7.764362941319142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>41215</v>
       </c>
       <c r="B87" s="3">
         <v>3.1079166666666702</v>
       </c>
-      <c r="C87" s="1">
-        <v>56.123958333333299</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="C87" s="3">
+        <v>7.5326067560965875</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>41216</v>
       </c>
       <c r="B88" s="3">
         <v>3.0914999999999999</v>
       </c>
-      <c r="C88" s="1">
-        <v>60.382916666666702</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="C88" s="3">
+        <v>8.1077786513841765</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>41217</v>
       </c>
       <c r="B89" s="3">
         <v>3.0741874999999999</v>
       </c>
-      <c r="C89" s="1">
-        <v>47.510833333333302</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="C89" s="3">
+        <v>6.3823661327066201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>41218</v>
       </c>
       <c r="B90" s="3">
         <v>3.0483229166666699</v>
       </c>
-      <c r="C90" s="1">
-        <v>60.958125000000003</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="C90" s="3">
+        <v>8.1944815491402689</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>41219</v>
       </c>
       <c r="B91" s="3">
         <v>3.0680624999999999</v>
       </c>
-      <c r="C91" s="1">
-        <v>53.106875000000002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="C91" s="3">
+        <v>7.1352802621108333</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>41220</v>
       </c>
       <c r="B92" s="3">
         <v>3.1040416666666699</v>
       </c>
-      <c r="C92" s="1">
-        <v>54.141562499999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="C92" s="3">
+        <v>7.2672954571057957</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>41221</v>
       </c>
       <c r="B93" s="3">
         <v>3.1362395833333299</v>
       </c>
-      <c r="C93" s="1">
-        <v>47.399374999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="C93" s="3">
+        <v>6.3568298237512275</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>41222</v>
       </c>
       <c r="B94" s="3">
         <v>3.1729166666666702</v>
       </c>
-      <c r="C94" s="1">
-        <v>47.280625000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="C94" s="3">
+        <v>6.33468981899395</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>41223</v>
       </c>
       <c r="B95" s="3">
         <v>3.2128645833333298</v>
       </c>
-      <c r="C95" s="1">
-        <v>53.521041666666697</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="C95" s="3">
+        <v>7.1631366430934476</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>41224</v>
       </c>
       <c r="B96" s="3">
         <v>2.5347395833333302</v>
       </c>
-      <c r="C96" s="1">
-        <v>69.555520833333304</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="C96" s="3">
+        <v>9.4803620884070021</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>41225</v>
       </c>
       <c r="B97" s="3">
         <v>2.0223541666666698</v>
       </c>
-      <c r="C97" s="1">
-        <v>74.702187499999994</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="C97" s="3">
+        <v>10.32461712877774</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>41226</v>
       </c>
       <c r="B98" s="3">
         <v>2.2472708333333302</v>
       </c>
-      <c r="C98" s="1">
-        <v>65.572500000000005</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="C98" s="3">
+        <v>9.0074256282172112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>41227</v>
       </c>
       <c r="B99" s="3">
         <v>2.4821249999999999</v>
       </c>
-      <c r="C99" s="1">
-        <v>58.4684375</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="C99" s="3">
+        <v>7.9805551488126296</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>41228</v>
       </c>
       <c r="B100" s="3">
         <v>2.6502708333333298</v>
       </c>
-      <c r="C100" s="1">
-        <v>46.507708333333298</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="C100" s="3">
+        <v>6.3192092630594621</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>41229</v>
       </c>
       <c r="B101" s="3">
         <v>2.7653124999999998</v>
       </c>
-      <c r="C101" s="1">
-        <v>46.459895833333299</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="C101" s="3">
+        <v>6.2931656821522255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>41230</v>
       </c>
       <c r="B102" s="3">
         <v>2.83109375</v>
       </c>
-      <c r="C102" s="1">
-        <v>41.728749999999998</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="C102" s="3">
+        <v>5.6423168586790924</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>41231</v>
       </c>
       <c r="B103" s="3">
         <v>2.8581979166666698</v>
       </c>
-      <c r="C103" s="1">
-        <v>44.496562500000003</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="C103" s="3">
+        <v>6.0121809754776701</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>41232</v>
       </c>
       <c r="B104" s="3">
         <v>2.8991562499999999</v>
       </c>
-      <c r="C104" s="1">
-        <v>44.160416666666698</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="C104" s="3">
+        <v>5.9601989132917801</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>41233</v>
       </c>
       <c r="B105" s="3">
         <v>2.9039062499999999</v>
       </c>
-      <c r="C105" s="1">
-        <v>52.158020833333303</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="C105" s="3">
+        <v>7.0387134513009366</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>41234</v>
       </c>
       <c r="B106" s="3">
         <v>2.85610416666667</v>
       </c>
-      <c r="C106" s="1">
-        <v>47.573333333333302</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="C106" s="3">
+        <v>6.4282626035908406</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>41235</v>
       </c>
       <c r="B107" s="3">
         <v>2.4050208333333298</v>
       </c>
-      <c r="C107" s="1">
-        <v>49.551250000000003</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="C107" s="3">
+        <v>6.7775607290162156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>41236</v>
       </c>
       <c r="B108" s="3">
         <v>2.3257187500000001</v>
       </c>
-      <c r="C108" s="1">
-        <v>64.383750000000006</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="C108" s="3">
+        <v>8.8253002413796136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>41237</v>
       </c>
       <c r="B109" s="3">
         <v>2.2102187500000001</v>
       </c>
-      <c r="C109" s="1">
-        <v>69.611770833333395</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="C109" s="3">
+        <v>9.5719259709178441</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>41238</v>
       </c>
       <c r="B110" s="3">
         <v>2.3599375</v>
       </c>
-      <c r="C110" s="1">
-        <v>60.4059375</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="C110" s="3">
+        <v>8.2723610136013548</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>41239</v>
       </c>
       <c r="B111" s="3">
         <v>2.5413333333333301</v>
       </c>
-      <c r="C111" s="1">
-        <v>39.001458333333296</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="C111" s="3">
+        <v>5.3149198690703834</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>41240</v>
       </c>
       <c r="B112" s="3">
         <v>2.67763541666667</v>
       </c>
-      <c r="C112" s="1">
-        <v>37.256354166666704</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="C112" s="3">
+        <v>5.0584506049904885</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>41241</v>
       </c>
       <c r="B113" s="3">
         <v>2.7477708333333299</v>
       </c>
-      <c r="C113" s="1">
-        <v>33.900520833333303</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="C113" s="3">
+        <v>4.5941216197031052</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>41242</v>
       </c>
       <c r="B114" s="3">
         <v>2.8035729166666701</v>
       </c>
-      <c r="C114" s="1">
-        <v>38.771562500000002</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="C114" s="3">
+        <v>5.2463461565353438</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>41243</v>
       </c>
       <c r="B115" s="3">
         <v>2.83146875</v>
       </c>
-      <c r="C115" s="1">
-        <v>40.453125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="C115" s="3">
+        <v>5.4697791596151841</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>41244</v>
       </c>
       <c r="B116" s="3">
         <v>2.8501458333333298</v>
       </c>
-      <c r="C116" s="1">
-        <v>39.904895833333299</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="C116" s="3">
+        <v>5.3929423451766461</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>41245</v>
       </c>
       <c r="B117" s="3">
         <v>2.8468125</v>
       </c>
-      <c r="C117" s="1">
-        <v>43.987708333333302</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="C117" s="3">
+        <v>5.9452463545316503</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>41246</v>
       </c>
       <c r="B118" s="3">
         <v>2.8621875000000001</v>
       </c>
-      <c r="C118" s="1">
-        <v>43.481145833333301</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="C118" s="3">
+        <v>5.8743522941347939</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>41247</v>
       </c>
       <c r="B119" s="3">
         <v>2.8603125</v>
       </c>
-      <c r="C119" s="1">
-        <v>42.895312500000003</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="C119" s="3">
+        <v>5.7954976339628281</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>41248</v>
       </c>
       <c r="B120" s="3">
         <v>2.8716458333333299</v>
       </c>
-      <c r="C120" s="1">
-        <v>39.911979166666697</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="C120" s="3">
+        <v>5.3907832133853137</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>41249</v>
       </c>
       <c r="B121" s="3">
         <v>2.8601458333333301</v>
       </c>
-      <c r="C121" s="1">
-        <v>36.948437499999997</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="C121" s="3">
+        <v>4.9920499231071966</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>41250</v>
       </c>
       <c r="B122" s="3">
         <v>2.8677083333333302</v>
       </c>
-      <c r="C122" s="1">
-        <v>28.074583333333301</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="C122" s="3">
+        <v>3.7923453689421689</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>41251</v>
       </c>
       <c r="B123" s="3">
         <v>2.85445833333333</v>
       </c>
-      <c r="C123" s="1">
-        <v>34.073020833333302</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="C123" s="3">
+        <v>4.6042604460777685</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>41252</v>
       </c>
       <c r="B124" s="3">
         <v>2.86271875</v>
       </c>
-      <c r="C124" s="1">
-        <v>31.4002083333333</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="C124" s="3">
+        <v>4.2421433091004719</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>41253</v>
       </c>
       <c r="B125" s="3">
         <v>2.8378020833333299</v>
       </c>
-      <c r="C125" s="1">
-        <v>29.411979166666701</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="C125" s="3">
+        <v>3.9761979145946769</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>41254</v>
       </c>
       <c r="B126" s="3">
         <v>2.8294375</v>
       </c>
-      <c r="C126" s="1">
-        <v>27.138541666666701</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="C126" s="3">
+        <v>3.6696779190717539</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>41255</v>
       </c>
       <c r="B127" s="3">
         <v>2.8138645833333298</v>
       </c>
-      <c r="C127" s="1">
-        <v>30.483125000000001</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="C127" s="3">
+        <v>4.1236601172447349</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>41256</v>
       </c>
       <c r="B128" s="3">
         <v>2.82042708333333</v>
       </c>
-      <c r="C128" s="1">
-        <v>29.412500000000001</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="C128" s="3">
+        <v>3.9781269815449689</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>41257</v>
       </c>
       <c r="B129" s="3">
         <v>2.80438541666667</v>
       </c>
-      <c r="C129" s="1">
-        <v>26.4047916666667</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="C129" s="3">
+        <v>3.572867318682948</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>41258</v>
       </c>
       <c r="B130" s="3">
         <v>2.80040625</v>
       </c>
-      <c r="C130" s="1">
-        <v>31.056249999999999</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="C130" s="3">
+        <v>4.202712304308049</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>41259</v>
       </c>
       <c r="B131" s="3">
         <v>2.7970000000000002</v>
       </c>
-      <c r="C131" s="1">
-        <v>26.2086458333333</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="C131" s="3">
+        <v>3.5470314622308887</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>41260</v>
       </c>
       <c r="B132" s="3">
         <v>2.7807187500000001</v>
       </c>
-      <c r="C132" s="1">
-        <v>26.8261458333333</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="C132" s="3">
+        <v>3.6321942372384886</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>41261</v>
       </c>
       <c r="B133" s="3">
         <v>2.7751874999999999</v>
       </c>
-      <c r="C133" s="1">
-        <v>28.5997916666667</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="C133" s="3">
+        <v>3.8729182153816493</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>41262</v>
       </c>
       <c r="B134" s="3">
         <v>2.7475000000000001</v>
       </c>
-      <c r="C134" s="1">
-        <v>27.042604166666699</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="C134" s="3">
+        <v>3.6647790591352303</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>41263</v>
       </c>
       <c r="B135" s="3">
         <v>2.7313958333333299</v>
       </c>
-      <c r="C135" s="1">
-        <v>27.500104166666699</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="C135" s="3">
+        <v>3.72839617978947</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>41264</v>
       </c>
       <c r="B136" s="3">
         <v>2.7437499999999999</v>
       </c>
-      <c r="C136" s="1">
-        <v>27.324375</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="C136" s="3">
+        <v>3.70333837370615</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>41265</v>
       </c>
       <c r="B137" s="3">
         <v>2.7255208333333298</v>
       </c>
-      <c r="C137" s="1">
-        <v>29.083749999999998</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="C137" s="3">
+        <v>3.9437272732745039</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>41266</v>
       </c>
       <c r="B138" s="3">
         <v>2.7143437499999998</v>
       </c>
-      <c r="C138" s="1">
-        <v>29.799895833333299</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="C138" s="3">
+        <v>4.0420533761871384</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>41267</v>
       </c>
       <c r="B139" s="3">
         <v>2.7011875000000001</v>
       </c>
-      <c r="C139" s="1">
-        <v>28.032083333333301</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="C139" s="3">
+        <v>3.8036163192963759</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>41268</v>
       </c>
       <c r="B140" s="3">
         <v>2.6906249999999998</v>
       </c>
-      <c r="C140" s="1">
-        <v>27.507083333333298</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="C140" s="3">
+        <v>3.7334432894410936</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>41269</v>
       </c>
       <c r="B141" s="3">
         <v>2.6789895833333301</v>
       </c>
-      <c r="C141" s="1">
-        <v>28.2994791666667</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="C141" s="3">
+        <v>3.8421979855728279</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>41270</v>
       </c>
       <c r="B142" s="3">
         <v>2.65617708333333</v>
       </c>
-      <c r="C142" s="1">
-        <v>28.369583333333299</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="C142" s="3">
+        <v>3.8540871934947849</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>41271</v>
       </c>
       <c r="B143" s="3">
         <v>2.6656666666666702</v>
       </c>
-      <c r="C143" s="1">
-        <v>28.74625</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="C143" s="3">
+        <v>3.9042586278522555</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>41272</v>
       </c>
       <c r="B144" s="3">
         <v>2.6590729166666698</v>
       </c>
-      <c r="C144" s="1">
-        <v>27.135937500000001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="C144" s="3">
+        <v>3.6862049125620087</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>41273</v>
       </c>
       <c r="B145" s="3">
         <v>2.6342395833333301</v>
       </c>
-      <c r="C145" s="1">
-        <v>25.930208333333301</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="C145" s="3">
+        <v>3.52477761391309</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>41274</v>
       </c>
       <c r="B146" s="3">
         <v>2.6264895833333299</v>
       </c>
-      <c r="C146" s="1">
-        <v>25.310625000000002</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="C146" s="3">
+        <v>3.4412755640607315</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>41275</v>
       </c>
       <c r="B147" s="3">
         <v>2.6010416666666698</v>
       </c>
-      <c r="C147" s="1">
-        <v>26.198020833333299</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="C147" s="3">
+        <v>3.5643761095974971</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>41276</v>
       </c>
       <c r="B148" s="3">
         <v>2.5985520833333302</v>
       </c>
-      <c r="C148" s="1">
-        <v>28.036979166666701</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="C148" s="3">
+        <v>3.8148324306975656</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>41277</v>
       </c>
       <c r="B149" s="3">
         <v>2.5935000000000001</v>
       </c>
-      <c r="C149" s="1">
-        <v>27.8694791666667</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="C149" s="3">
+        <v>3.7925592248521309</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>41278</v>
       </c>
       <c r="B150" s="3">
         <v>2.5864479166666698</v>
       </c>
-      <c r="C150" s="1">
-        <v>29.546354166666699</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="C150" s="3">
+        <v>4.0215193601233441</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>41279</v>
       </c>
       <c r="B151" s="3">
         <v>2.5682291666666699</v>
       </c>
-      <c r="C151" s="1">
-        <v>26.945</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="C151" s="3">
+        <v>3.6692581922629848</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>41280</v>
       </c>
       <c r="B152" s="3">
         <v>2.5659791666666698</v>
       </c>
-      <c r="C152" s="1">
-        <v>19.720104166666701</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="C152" s="3">
+        <v>2.6855652020599008</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>41281</v>
       </c>
       <c r="B153" s="3">
         <v>2.5548333333333302</v>
       </c>
-      <c r="C153" s="1">
-        <v>25.279687500000001</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="C153" s="3">
+        <v>3.4437296460394595</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>41282</v>
       </c>
       <c r="B154" s="3">
         <v>2.5272604166666701</v>
       </c>
-      <c r="C154" s="1">
-        <v>20.9872916666667</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="C154" s="3">
+        <v>2.8611298595814221</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>41283</v>
       </c>
       <c r="B155" s="3">
         <v>2.5286249999999999</v>
       </c>
-      <c r="C155" s="1">
-        <v>22.4270833333333</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="C155" s="3">
+        <v>3.0572991709999995</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>41284</v>
       </c>
       <c r="B156" s="3">
         <v>2.5015937500000001</v>
       </c>
-      <c r="C156" s="1">
-        <v>24.661979166666701</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="C156" s="3">
+        <v>3.3644237082290731</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>41285</v>
       </c>
       <c r="B157" s="3">
         <v>2.4829270833333301</v>
       </c>
-      <c r="C157" s="1">
-        <v>21.072395833333299</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="C157" s="3">
+        <v>2.8761802553037983</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>41286</v>
       </c>
       <c r="B158" s="3">
         <v>2.4740520833333299</v>
       </c>
-      <c r="C158" s="1">
-        <v>24.875416666666698</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="C158" s="3">
+        <v>3.3960720965286653</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>41287</v>
       </c>
       <c r="B159" s="3">
         <v>2.4686041666666698</v>
       </c>
-      <c r="C159" s="1">
-        <v>24.389270833333299</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="C159" s="3">
+        <v>3.3301931206280901</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>41288</v>
       </c>
       <c r="B160" s="3">
         <v>2.4856562499999999</v>
       </c>
-      <c r="C160" s="1">
-        <v>21.3434375</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="C160" s="3">
+        <v>2.9129596268148363</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>41289</v>
       </c>
       <c r="B161" s="3">
         <v>2.6002395833333298</v>
       </c>
-      <c r="C161" s="1">
-        <v>22.136458333333302</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="C161" s="3">
+        <v>3.0118447972603479</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>41290</v>
       </c>
       <c r="B162" s="3">
         <v>2.63673958333333</v>
       </c>
-      <c r="C162" s="1">
-        <v>22.704374999999999</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="C162" s="3">
+        <v>3.0860713167766938</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>41291</v>
       </c>
       <c r="B163" s="3">
         <v>2.6564062499999999</v>
       </c>
-      <c r="C163" s="1">
-        <v>24.6111458333333</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="C163" s="3">
+        <v>3.3434722782845538</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>41292</v>
       </c>
       <c r="B164" s="3">
         <v>2.6507812500000001</v>
       </c>
-      <c r="C164" s="1">
-        <v>23.3533333333333</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="C164" s="3">
+        <v>3.1730776007730004</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>41293</v>
       </c>
       <c r="B165" s="3">
         <v>2.62073958333333</v>
       </c>
-      <c r="C165" s="1">
-        <v>23.4033333333333</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="C165" s="3">
+        <v>3.182450992743787</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>41294</v>
       </c>
       <c r="B166" s="3">
         <v>2.6296145833333302</v>
       </c>
-      <c r="C166" s="1">
-        <v>23.563333333333301</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="C166" s="3">
+        <v>3.2034405388713418</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>41295</v>
       </c>
       <c r="B167" s="3">
         <v>2.5863541666666698</v>
       </c>
-      <c r="C167" s="1">
-        <v>22.430416666666702</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="C167" s="3">
+        <v>3.0529852469767458</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>41296</v>
       </c>
       <c r="B168" s="3">
         <v>2.5728645833333301</v>
       </c>
-      <c r="C168" s="1">
-        <v>24.745000000000001</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="C168" s="3">
+        <v>3.369249195467674</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>41297</v>
       </c>
       <c r="B169" s="3">
         <v>2.56633333333333</v>
       </c>
-      <c r="C169" s="1">
-        <v>23.416458333333299</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+      <c r="C169" s="3">
+        <v>3.1889194458669481</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>41298</v>
       </c>
       <c r="B170" s="3">
         <v>2.5485937500000002</v>
       </c>
-      <c r="C170" s="1">
-        <v>22.992395833333301</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="C170" s="3">
+        <v>3.1326713881058832</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>41299</v>
       </c>
       <c r="B171" s="3">
         <v>2.5346250000000001</v>
       </c>
-      <c r="C171" s="1">
-        <v>24.055104166666698</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="C171" s="3">
+        <v>3.2787016984708144</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>41300</v>
       </c>
       <c r="B172" s="3">
         <v>2.5336145833333301</v>
       </c>
-      <c r="C172" s="1">
-        <v>23.746041666666699</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+      <c r="C172" s="3">
+        <v>3.2366650437399489</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>41301</v>
       </c>
       <c r="B173" s="3">
         <v>2.5233854166666698</v>
       </c>
-      <c r="C173" s="1">
-        <v>22.7809375</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+      <c r="C173" s="3">
+        <v>3.1059773666646024</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>41302</v>
       </c>
       <c r="B174" s="3">
         <v>2.5020416666666701</v>
       </c>
-      <c r="C174" s="1">
-        <v>23.098020833333301</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="C174" s="3">
+        <v>3.1510280015146588</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>41303</v>
       </c>
       <c r="B175" s="3">
         <v>2.4975416666666699</v>
       </c>
-      <c r="C175" s="1">
-        <v>23.003958333333301</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+      <c r="C175" s="3">
+        <v>3.1385782164064904</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>41304</v>
       </c>
       <c r="B176" s="3">
         <v>2.4896250000000002</v>
       </c>
-      <c r="C176" s="1">
-        <v>24.278437499999999</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="C176" s="3">
+        <v>3.3131734706056841</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>41305</v>
       </c>
       <c r="B177" s="3">
         <v>2.4669166666666702</v>
       </c>
-      <c r="C177" s="1">
-        <v>22.0127083333333</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+      <c r="C177" s="3">
+        <v>3.0058266309253656</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>41306</v>
       </c>
       <c r="B178" s="3">
         <v>2.4545625000000002</v>
       </c>
-      <c r="C178" s="1">
-        <v>25.672291666666698</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="C178" s="3">
+        <v>3.5067143938253569</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>41307</v>
       </c>
       <c r="B179" s="3">
         <v>2.4616145833333301</v>
       </c>
-      <c r="C179" s="1">
-        <v>26.260208333333299</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="C179" s="3">
+        <v>3.5863359905578318</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>41308</v>
       </c>
       <c r="B180" s="3">
         <v>2.4470208333333301</v>
       </c>
-      <c r="C180" s="1">
-        <v>25.481041666666702</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="C180" s="3">
+        <v>3.4813016593272241</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>41309</v>
       </c>
       <c r="B181" s="3">
         <v>2.4442291666666698</v>
       </c>
-      <c r="C181" s="1">
-        <v>25.8686458333333</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+      <c r="C181" s="3">
+        <v>3.5345246825531236</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>41310</v>
       </c>
       <c r="B182" s="3">
         <v>2.4418125000000002</v>
       </c>
-      <c r="C182" s="1">
-        <v>25.905625000000001</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="C182" s="3">
+        <v>3.5398090282029018</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>41311</v>
       </c>
       <c r="B183" s="3">
         <v>2.4432499999999999</v>
       </c>
-      <c r="C183" s="1">
-        <v>25.453958333333301</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="C183" s="3">
+        <v>3.4779567199940624</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>41312</v>
       </c>
       <c r="B184" s="3">
         <v>2.4212604166666698</v>
       </c>
-      <c r="C184" s="1">
-        <v>23.3553125</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+      <c r="C184" s="3">
+        <v>3.1931057790872162</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>41313</v>
       </c>
       <c r="B185" s="3">
         <v>2.42651041666667</v>
       </c>
-      <c r="C185" s="1">
-        <v>23.1466666666667</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+      <c r="C185" s="3">
+        <v>3.1641297758135347</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>41314</v>
       </c>
       <c r="B186" s="3">
         <v>2.4250625000000001</v>
       </c>
-      <c r="C186" s="1">
-        <v>23.9438541666667</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+      <c r="C186" s="3">
+        <v>3.2732330710118713</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>41315</v>
       </c>
       <c r="B187" s="3">
         <v>2.4458229166666698</v>
       </c>
-      <c r="C187" s="1">
-        <v>24.034791666666699</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+      <c r="C187" s="3">
+        <v>3.2838169085091296</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>41316</v>
       </c>
       <c r="B188" s="3">
         <v>2.4573645833333302</v>
       </c>
-      <c r="C188" s="1">
-        <v>26.497291666666701</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+      <c r="C188" s="3">
+        <v>3.6191308310784747</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>41317</v>
       </c>
       <c r="B189" s="3">
         <v>2.4460312499999999</v>
       </c>
-      <c r="C189" s="1">
-        <v>26.036874999999998</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+      <c r="C189" s="3">
+        <v>3.5573367560971429</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>41318</v>
       </c>
       <c r="B190" s="3">
         <v>2.4593854166666702</v>
       </c>
-      <c r="C190" s="1">
-        <v>25.069375000000001</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+      <c r="C190" s="3">
+        <v>3.423911523297043</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>41319</v>
       </c>
       <c r="B191" s="3">
         <v>2.4621979166666699</v>
       </c>
-      <c r="C191" s="1">
-        <v>24.743020833333301</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+      <c r="C191" s="3">
+        <v>3.3790815042039157</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>41320</v>
       </c>
       <c r="B192" s="3">
         <v>2.4595208333333298</v>
       </c>
-      <c r="C192" s="1">
-        <v>23.456875</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+      <c r="C192" s="3">
+        <v>3.2036686218060257</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>41321</v>
       </c>
       <c r="B193" s="3">
         <v>2.4574687499999999</v>
       </c>
-      <c r="C193" s="1">
-        <v>22.628541666666699</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+      <c r="C193" s="3">
+        <v>3.0907091481492159</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>41322</v>
       </c>
       <c r="B194" s="3">
         <v>2.4584583333333301</v>
       </c>
-      <c r="C194" s="1">
-        <v>22.270312499999999</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+      <c r="C194" s="3">
+        <v>3.0416990538630713</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>41323</v>
       </c>
       <c r="B195" s="3">
         <v>2.4473020833333301</v>
       </c>
-      <c r="C195" s="1">
-        <v>21.507916666666699</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="C195" s="3">
+        <v>2.9384581872557805</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>41324</v>
       </c>
       <c r="B196" s="3">
         <v>2.4445208333333301</v>
       </c>
-      <c r="C196" s="1">
-        <v>22.6197916666667</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+      <c r="C196" s="3">
+        <v>3.0905978126042752</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>41325</v>
       </c>
       <c r="B197" s="3">
         <v>2.4192187500000002</v>
       </c>
-      <c r="C197" s="1">
-        <v>22.4560416666667</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+      <c r="C197" s="3">
+        <v>3.0703286197659025</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>41326</v>
       </c>
       <c r="B198" s="3">
         <v>2.4308958333333299</v>
       </c>
-      <c r="C198" s="1">
-        <v>20.910833333333301</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+      <c r="C198" s="3">
+        <v>2.8581535616911591</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>41327</v>
       </c>
       <c r="B199" s="3">
         <v>2.4461249999999999</v>
       </c>
-      <c r="C199" s="1">
-        <v>20.882187500000001</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+      <c r="C199" s="3">
+        <v>2.8530606871458883</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>41328</v>
       </c>
       <c r="B200" s="3">
         <v>2.4331354166666701</v>
       </c>
-      <c r="C200" s="1">
-        <v>21.217395833333299</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+      <c r="C200" s="3">
+        <v>2.8998794258213456</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>41329</v>
       </c>
       <c r="B201" s="3">
         <v>2.397875</v>
       </c>
-      <c r="C201" s="1">
-        <v>22.564895833333299</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+      <c r="C201" s="3">
+        <v>3.086997505575539</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>41330</v>
       </c>
       <c r="B202" s="3">
         <v>2.3868125</v>
       </c>
-      <c r="C202" s="1">
-        <v>21.058854166666698</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+      <c r="C202" s="3">
+        <v>2.8818274003211055</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>41331</v>
       </c>
       <c r="B203" s="3">
         <v>2.37342708333333</v>
       </c>
-      <c r="C203" s="1">
-        <v>23.104583333333299</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+      <c r="C203" s="3">
+        <v>3.1629261149159538</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>41332</v>
       </c>
       <c r="B204" s="3">
         <v>2.3586770833333301</v>
       </c>
-      <c r="C204" s="1">
-        <v>20.721458333333299</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+      <c r="C204" s="3">
+        <v>2.8378211446119406</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>41333</v>
       </c>
       <c r="B205" s="3">
         <v>2.35203125</v>
       </c>
-      <c r="C205" s="1">
-        <v>22.540624999999999</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+      <c r="C205" s="3">
+        <v>3.0875143158882965</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>41334</v>
       </c>
       <c r="B206" s="3">
         <v>2.3310104166666701</v>
       </c>
-      <c r="C206" s="1">
-        <v>27.8466666666667</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+      <c r="C206" s="3">
+        <v>3.81648923733204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>41335</v>
       </c>
       <c r="B207" s="3">
         <v>2.3289062500000002</v>
       </c>
-      <c r="C207" s="1">
-        <v>20.406145833333301</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+      <c r="C207" s="3">
+        <v>2.7968979570673822</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>41336</v>
       </c>
       <c r="B208" s="3">
         <v>2.30419791666667</v>
       </c>
-      <c r="C208" s="1">
-        <v>24.401250000000001</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+      <c r="C208" s="3">
+        <v>3.3467179701500815</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>41337</v>
       </c>
       <c r="B209" s="3">
         <v>2.3044895833333299</v>
       </c>
-      <c r="C209" s="1">
-        <v>20.14875</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+      <c r="C209" s="3">
+        <v>2.7634506215480434</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>41338</v>
       </c>
       <c r="B210" s="3">
         <v>2.29028125</v>
       </c>
-      <c r="C210" s="1">
-        <v>25.324895833333301</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+      <c r="C210" s="3">
+        <v>3.4747126789128555</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>41339</v>
       </c>
       <c r="B211" s="3">
         <v>2.2687604166666699</v>
       </c>
-      <c r="C211" s="1">
-        <v>24.480625</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
+      <c r="C211" s="3">
+        <v>3.3608391048177544</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>41340</v>
       </c>
       <c r="B212" s="3">
         <v>2.2524687499999998</v>
       </c>
-      <c r="C212" s="1">
-        <v>21.6044791666667</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+      <c r="C212" s="3">
+        <v>2.9672993681259072</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>41341</v>
       </c>
       <c r="B213" s="3">
         <v>2.2231562500000002</v>
       </c>
-      <c r="C213" s="1">
-        <v>22.2905208333333</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+      <c r="C213" s="3">
+        <v>3.0639663883882506</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>41342</v>
       </c>
       <c r="B214" s="3">
         <v>2.2411145833333301</v>
       </c>
-      <c r="C214" s="1">
-        <v>23.4698958333333</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
+      <c r="C214" s="3">
+        <v>3.2245031801157857</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>41343</v>
       </c>
       <c r="B215" s="3">
         <v>2.2095208333333298</v>
       </c>
-      <c r="C215" s="1">
-        <v>22.771041666666701</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+      <c r="C215" s="3">
+        <v>3.1311782738682901</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>41344</v>
       </c>
       <c r="B216" s="3">
         <v>2.1905416666666699</v>
       </c>
-      <c r="C216" s="1">
-        <v>24.119375000000002</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+      <c r="C216" s="3">
+        <v>3.3182971467934341</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>41345</v>
       </c>
       <c r="B217" s="3">
         <v>2.1920729166666701</v>
       </c>
-      <c r="C217" s="1">
-        <v>22.629687499999999</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
+      <c r="C217" s="3">
+        <v>3.1132190459505931</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>41346</v>
       </c>
       <c r="B218" s="3">
         <v>2.18723958333333</v>
       </c>
-      <c r="C218" s="1">
-        <v>23.2503125</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+      <c r="C218" s="3">
+        <v>3.199020740913662</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>41347</v>
       </c>
       <c r="B219" s="3">
         <v>2.1610416666666699</v>
       </c>
-      <c r="C219" s="1">
-        <v>21.8214583333333</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
+      <c r="C219" s="3">
+        <v>3.0045665852054606</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>41348</v>
       </c>
       <c r="B220" s="3">
         <v>2.1701354166666702</v>
       </c>
-      <c r="C220" s="1">
-        <v>19.637916666666701</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
+      <c r="C220" s="3">
+        <v>2.7032481857961685</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>41349</v>
       </c>
       <c r="B221" s="3">
         <v>2.1728229166666702</v>
       </c>
-      <c r="C221" s="1">
-        <v>19.682708333333299</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+      <c r="C221" s="3">
+        <v>2.709215689993171</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>41350</v>
       </c>
       <c r="B222" s="3">
         <v>2.16347916666667</v>
       </c>
-      <c r="C222" s="1">
-        <v>16.973333333333301</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
+      <c r="C222" s="3">
+        <v>2.3368797821637948</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>41351</v>
       </c>
       <c r="B223" s="3">
         <v>2.15185416666667</v>
       </c>
-      <c r="C223" s="1">
-        <v>16.310625000000002</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
+      <c r="C223" s="3">
+        <v>2.2463495996475413</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>41352</v>
       </c>
       <c r="B224" s="3">
         <v>2.1430312499999999</v>
       </c>
-      <c r="C224" s="1">
-        <v>19.7320833333333</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
+      <c r="C224" s="3">
+        <v>2.7182166677817849</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>41353</v>
       </c>
       <c r="B225" s="3">
         <v>2.1431770833333301</v>
       </c>
-      <c r="C225" s="1">
-        <v>15.1160416666667</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
+      <c r="C225" s="3">
+        <v>2.0823200704034628</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>41354</v>
       </c>
       <c r="B226" s="3">
         <v>2.1137083333333302</v>
       </c>
-      <c r="C226" s="1">
-        <v>19.4296875</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
+      <c r="C226" s="3">
+        <v>2.6786995131720892</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>41355</v>
       </c>
       <c r="B227" s="3">
         <v>2.0947916666666702</v>
       </c>
-      <c r="C227" s="1">
-        <v>21.6409375</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
+      <c r="C227" s="3">
+        <v>2.9850956014008712</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>41356</v>
       </c>
       <c r="B228" s="3">
         <v>2.0770312500000001</v>
       </c>
-      <c r="C228" s="1">
-        <v>23.923541666666701</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+      <c r="C228" s="3">
+        <v>3.3015510676046524</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>41357</v>
       </c>
       <c r="B229" s="3">
         <v>2.0659791666666698</v>
       </c>
-      <c r="C229" s="1">
-        <v>23.269895833333301</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+      <c r="C229" s="3">
+        <v>3.212313568904634</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>41358</v>
       </c>
       <c r="B230" s="3">
         <v>2.0646354166666701</v>
       </c>
-      <c r="C230" s="1">
-        <v>21.950729166666701</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+      <c r="C230" s="3">
+        <v>3.0303191281930157</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>41359</v>
       </c>
       <c r="B231" s="3">
         <v>2.0428125000000001</v>
       </c>
-      <c r="C231" s="1">
-        <v>21.845937500000002</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+      <c r="C231" s="3">
+        <v>3.0176491958346259</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>41360</v>
       </c>
       <c r="B232" s="3">
         <v>2.03358333333333</v>
       </c>
-      <c r="C232" s="1">
-        <v>21.606354166666701</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+      <c r="C232" s="3">
+        <v>2.9853068161718004</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>41361</v>
       </c>
       <c r="B233" s="3">
         <v>2.0312187499999999</v>
       </c>
-      <c r="C233" s="1">
-        <v>20.935833333333299</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+      <c r="C233" s="3">
+        <v>2.8928490382643997</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>41362</v>
       </c>
       <c r="B234" s="3">
         <v>2.0613541666666699</v>
       </c>
-      <c r="C234" s="1">
-        <v>20.913541666666699</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+      <c r="C234" s="3">
+        <v>2.8873929046772515</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>41363</v>
       </c>
       <c r="B235" s="3">
         <v>2.0216666666666701</v>
       </c>
-      <c r="C235" s="1">
-        <v>20.760208333333299</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+      <c r="C235" s="3">
+        <v>2.8693299847516989</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>41364</v>
       </c>
       <c r="B236" s="3">
         <v>2.0170416666666702</v>
       </c>
-      <c r="C236" s="1">
-        <v>21.848125</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+      <c r="C236" s="3">
+        <v>3.0200755879101364</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>41365</v>
       </c>
       <c r="B237" s="3">
         <v>2.0123333333333302</v>
       </c>
-      <c r="C237" s="1">
-        <v>18.673124999999999</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+      <c r="C237" s="3">
+        <v>2.5815259214837685</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>41366</v>
       </c>
       <c r="B238" s="3">
         <v>2.0147708333333298</v>
       </c>
-      <c r="C238" s="1">
-        <v>18.106041666666702</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
+      <c r="C238" s="3">
+        <v>2.5029610410617682</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>41367</v>
       </c>
       <c r="B239" s="3">
         <v>1.9881875</v>
       </c>
-      <c r="C239" s="1">
-        <v>18.106354166666701</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+      <c r="C239" s="3">
+        <v>2.5048225510231283</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>41368</v>
       </c>
       <c r="B240" s="3">
         <v>1.98052083333333</v>
       </c>
-      <c r="C240" s="1">
-        <v>16.509374999999999</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
+      <c r="C240" s="3">
+        <v>2.284375906167488</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>41369</v>
       </c>
       <c r="B241" s="3">
         <v>1.98475</v>
       </c>
-      <c r="C241" s="1">
-        <v>20.137916666666701</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
+      <c r="C241" s="3">
+        <v>2.7861294198316289</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>41370</v>
       </c>
       <c r="B242" s="3">
         <v>2.01597916666667</v>
       </c>
-      <c r="C242" s="1">
-        <v>22.363229166666699</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
+      <c r="C242" s="3">
+        <v>3.0913683549026514</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>41371</v>
       </c>
       <c r="B243" s="3">
         <v>1.9835</v>
       </c>
-      <c r="C243" s="1">
-        <v>18.771562500000002</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
+      <c r="C243" s="3">
+        <v>2.5971797326806199</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>41372</v>
       </c>
       <c r="B244" s="3">
         <v>1.9649479166666699</v>
       </c>
-      <c r="C244" s="1">
-        <v>18.070104166666699</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
+      <c r="C244" s="3">
+        <v>2.5013959844055487</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>41373</v>
       </c>
       <c r="B245" s="3">
         <v>1.96929166666667</v>
       </c>
-      <c r="C245" s="1">
-        <v>19.942916666666701</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
+      <c r="C245" s="3">
+        <v>2.7603166185448975</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>41374</v>
       </c>
       <c r="B246" s="3">
         <v>1.98136458333333</v>
       </c>
-      <c r="C246" s="1">
-        <v>17.810833333333299</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
+      <c r="C246" s="3">
+        <v>2.4643997968378151</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>41375</v>
       </c>
       <c r="B247" s="3">
         <v>2.00547916666667</v>
       </c>
-      <c r="C247" s="1">
-        <v>16.947812500000001</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
+      <c r="C247" s="3">
+        <v>2.3434432530238314</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>41376</v>
       </c>
       <c r="B248" s="3">
         <v>2.0060625000000001</v>
       </c>
-      <c r="C248" s="1">
-        <v>17.398854166666698</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
+      <c r="C248" s="3">
+        <v>2.4057722928803447</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>41377</v>
       </c>
       <c r="B249" s="3">
         <v>1.9618125</v>
       </c>
-      <c r="C249" s="1">
-        <v>17.745416666666699</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
+      <c r="C249" s="3">
+        <v>2.4566609240084283</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>41378</v>
       </c>
       <c r="B250" s="3">
         <v>1.97790625</v>
       </c>
-      <c r="C250" s="1">
-        <v>16.793020833333301</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
+      <c r="C250" s="3">
+        <v>2.3237895649910829</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>41379</v>
       </c>
       <c r="B251" s="3">
         <v>1.9762395833333299</v>
       </c>
-      <c r="C251" s="1">
-        <v>16.471875000000001</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
+      <c r="C251" s="3">
+        <v>2.2794537790863258</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>41380</v>
       </c>
       <c r="B252" s="3">
         <v>1.95275</v>
       </c>
-      <c r="C252" s="1">
-        <v>16.7864583333333</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
+      <c r="C252" s="3">
+        <v>2.3244793830098893</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>41381</v>
       </c>
       <c r="B253" s="3">
         <v>1.88029166666667</v>
       </c>
-      <c r="C253" s="1">
-        <v>21.096562500000001</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
+      <c r="C253" s="3">
+        <v>2.9271118813904939</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>41382</v>
       </c>
       <c r="B254" s="3">
         <v>1.6897291666666701</v>
       </c>
-      <c r="C254" s="1">
-        <v>21.608645833333298</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
+      <c r="C254" s="3">
+        <v>3.0138746806908925</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>41383</v>
       </c>
       <c r="B255" s="3">
         <v>1.3998645833333301</v>
       </c>
-      <c r="C255" s="1">
-        <v>24.711458333333301</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
+      <c r="C255" s="3">
+        <v>3.4742780385880496</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>41384</v>
       </c>
       <c r="B256" s="3">
         <v>1.0092187500000001</v>
       </c>
-      <c r="C256" s="1">
-        <v>28.961145833333301</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
+      <c r="C256" s="3">
+        <v>4.1161055856073441</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>41385</v>
       </c>
       <c r="B257" s="3">
         <v>0.90057291666666694</v>
       </c>
-      <c r="C257" s="1">
-        <v>32.081666666666699</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
+      <c r="C257" s="3">
+        <v>4.5734326208117873</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>41386</v>
       </c>
       <c r="B258" s="3">
         <v>1.0868125</v>
       </c>
-      <c r="C258" s="1">
-        <v>33.4117708333333</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
+      <c r="C258" s="3">
+        <v>4.7384143578954463</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>41387</v>
       </c>
       <c r="B259" s="3">
         <v>1.1754166666666701</v>
       </c>
-      <c r="C259" s="1">
-        <v>35.466979166666697</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
+      <c r="C259" s="3">
+        <v>5.0175210298130715</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>41388</v>
       </c>
       <c r="B260" s="3">
         <v>1.3720937499999999</v>
       </c>
-      <c r="C260" s="1">
-        <v>37.550937500000003</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
+      <c r="C260" s="3">
+        <v>5.2834826212421504</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>41389</v>
       </c>
       <c r="B261" s="3">
         <v>1.49185416666667</v>
       </c>
-      <c r="C261" s="1">
-        <v>37.733958333333298</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
+      <c r="C261" s="3">
+        <v>5.2917065359344493</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>41390</v>
       </c>
       <c r="B262" s="3">
         <v>1.73086458333333</v>
       </c>
-      <c r="C262" s="1">
-        <v>34.368020833333297</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
+      <c r="C262" s="3">
+        <v>4.7880806923910564</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>41391</v>
       </c>
       <c r="B263" s="3">
         <v>1.97060416666667</v>
       </c>
-      <c r="C263" s="1">
-        <v>35.522291666666703</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
+      <c r="C263" s="3">
+        <v>4.9164952169711542</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>41392</v>
       </c>
       <c r="B264" s="3">
         <v>2.2203020833333298</v>
       </c>
-      <c r="C264" s="1">
-        <v>31.957395833333301</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
+      <c r="C264" s="3">
+        <v>4.3930776939589284</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>41393</v>
       </c>
       <c r="B265" s="3">
         <v>2.2937500000000002</v>
       </c>
-      <c r="C265" s="1">
-        <v>35.563958333333296</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
+      <c r="C265" s="3">
+        <v>4.8791075953426182</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>41394</v>
       </c>
       <c r="B266" s="3">
         <v>2.4458854166666701</v>
       </c>
-      <c r="C266" s="1">
-        <v>35.531874999999999</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
+      <c r="C266" s="3">
+        <v>4.8546280732071674</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>41395</v>
       </c>
       <c r="B267" s="3">
         <v>2.6530312500000002</v>
       </c>
-      <c r="C267" s="1">
-        <v>34.146666666666697</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
+      <c r="C267" s="3">
+        <v>4.6393139232039937</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>41396</v>
       </c>
       <c r="B268" s="3">
         <v>2.8301249999999998</v>
       </c>
-      <c r="C268" s="1">
-        <v>24.398541666666699</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
+      <c r="C268" s="3">
+        <v>3.2991136784111244</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>41397</v>
       </c>
       <c r="B269" s="3">
         <v>3.04186458333333</v>
       </c>
-      <c r="C269" s="1">
-        <v>30.8769791666667</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
+      <c r="C269" s="3">
+        <v>4.1514500983113285</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>41398</v>
       </c>
       <c r="B270" s="3">
         <v>3.1011562499999998</v>
       </c>
-      <c r="C270" s="1">
-        <v>36.976041666666703</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
+      <c r="C270" s="3">
+        <v>4.9635909269931542</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>41399</v>
       </c>
       <c r="B271" s="3">
         <v>3.1974374999999999</v>
       </c>
-      <c r="C271" s="1">
-        <v>37.383958333333297</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
+      <c r="C271" s="3">
+        <v>5.0054474124043864</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>41400</v>
       </c>
       <c r="B272" s="3">
         <v>3.50016666666667</v>
       </c>
-      <c r="C272" s="1">
-        <v>37.137083333333301</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
+      <c r="C272" s="3">
+        <v>4.9324583723908635</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>41401</v>
       </c>
       <c r="B273" s="3">
         <v>4.0427604166666704</v>
       </c>
-      <c r="C273" s="1">
-        <v>39.006666666666703</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
+      <c r="C273" s="3">
+        <v>5.1070139600467845</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>41402</v>
       </c>
       <c r="B274" s="3">
         <v>4.3536250000000001</v>
       </c>
-      <c r="C274" s="1">
-        <v>39.005312500000002</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
+      <c r="C274" s="3">
+        <v>5.0653843154375213</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>41403</v>
       </c>
       <c r="B275" s="3">
         <v>4.2394999999999996</v>
       </c>
-      <c r="C275" s="1">
-        <v>45.510208333333303</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
+      <c r="C275" s="3">
+        <v>5.9278135358404116</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>41404</v>
       </c>
       <c r="B276" s="3">
         <v>3.93526041666667</v>
       </c>
-      <c r="C276" s="1">
-        <v>36.823958333333302</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
+      <c r="C276" s="3">
+        <v>4.8348997070236166</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>41405</v>
       </c>
       <c r="B277" s="3">
         <v>4.1166458333333296</v>
       </c>
-      <c r="C277" s="1">
-        <v>49.973854166666698</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
+      <c r="C277" s="3">
+        <v>6.5302216109970228</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>41406</v>
       </c>
       <c r="B278" s="3">
         <v>4.5687187500000004</v>
       </c>
-      <c r="C278" s="1">
-        <v>53.894895833333301</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
+      <c r="C278" s="3">
+        <v>6.9598380343942177</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>41407</v>
       </c>
       <c r="B279" s="3">
         <v>4.6774687500000001</v>
       </c>
-      <c r="C279" s="1">
-        <v>63.655208333333299</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
+      <c r="C279" s="3">
+        <v>8.1970378467612317</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>41408</v>
       </c>
       <c r="B280" s="3">
         <v>4.8358958333333302</v>
       </c>
-      <c r="C280" s="1">
-        <v>63.641666666666701</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
+      <c r="C280" s="3">
+        <v>8.1616749955852406</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>41409</v>
       </c>
       <c r="B281" s="3">
         <v>5.06175</v>
       </c>
-      <c r="C281" s="1">
-        <v>67.871145833333401</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
+      <c r="C281" s="3">
+        <v>8.6534032633459645</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>41410</v>
       </c>
       <c r="B282" s="3">
         <v>5.1696354166666696</v>
       </c>
-      <c r="C282" s="1">
-        <v>69.045729166666703</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
+      <c r="C282" s="3">
+        <v>8.7787148195769102</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>41411</v>
       </c>
       <c r="B283" s="3">
         <v>5.4927916666666698</v>
       </c>
-      <c r="C283" s="1">
-        <v>66.913645833333305</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
+      <c r="C283" s="3">
+        <v>8.4373467375724847</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>41412</v>
       </c>
       <c r="B284" s="3">
         <v>6.1558124999999997</v>
       </c>
-      <c r="C284" s="1">
-        <v>70.217604166666703</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
+      <c r="C284" s="3">
+        <v>8.7058695744926133</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>41413</v>
       </c>
       <c r="B285" s="3">
         <v>7.7572916666666698</v>
       </c>
-      <c r="C285" s="1">
-        <v>75.944374999999994</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
+      <c r="C285" s="3">
+        <v>9.0475926286531045</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>41414</v>
       </c>
       <c r="B286" s="3">
         <v>9.8370833333333305</v>
       </c>
-      <c r="C286" s="1">
-        <v>80.049895833333295</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
+      <c r="C286" s="3">
+        <v>9.0706158666648307</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>41415</v>
       </c>
       <c r="B287" s="3">
         <v>10.969374999999999</v>
       </c>
-      <c r="C287" s="1">
-        <v>79.446145833333304</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
+      <c r="C287" s="3">
+        <v>8.7667864417359649</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>41416</v>
       </c>
       <c r="B288" s="3">
         <v>11.139583333333301</v>
       </c>
-      <c r="C288" s="1">
-        <v>76.266354166666702</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
+      <c r="C288" s="3">
+        <v>8.3828306525028218</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>41417</v>
       </c>
       <c r="B289" s="3">
         <v>8.9605208333333408</v>
       </c>
-      <c r="C289" s="1">
-        <v>78.680312499999999</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
+      <c r="C289" s="3">
+        <v>9.1036132401274248</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>41418</v>
       </c>
       <c r="B290" s="3">
         <v>8.9676041666666695</v>
       </c>
-      <c r="C290" s="1">
-        <v>78.885208333333395</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
+      <c r="C290" s="3">
+        <v>9.1257678087564731</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>41419</v>
       </c>
       <c r="B291" s="3">
         <v>8.7805208333333304</v>
       </c>
-      <c r="C291" s="1">
-        <v>80.903854166666704</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
+      <c r="C291" s="3">
+        <v>9.4015111679971568</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>41420</v>
       </c>
       <c r="B292" s="3">
         <v>9.7803125000000009</v>
       </c>
-      <c r="C292" s="1">
-        <v>84.641874999999999</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
+      <c r="C292" s="3">
+        <v>9.6038302234750184</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>41421</v>
       </c>
       <c r="B293" s="3">
         <v>10.981875</v>
       </c>
-      <c r="C293" s="1">
-        <v>86.133750000000006</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
+      <c r="C293" s="3">
+        <v>9.5020037991877082</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>41422</v>
       </c>
       <c r="B294" s="3">
         <v>12.405312500000001</v>
       </c>
-      <c r="C294" s="1">
-        <v>84.188958333333304</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
+      <c r="C294" s="3">
+        <v>8.9899751986032879</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>41423</v>
       </c>
       <c r="B295" s="3">
         <v>11.380104166666699</v>
       </c>
-      <c r="C295" s="1">
-        <v>85.283020833333296</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
+      <c r="C295" s="3">
+        <v>9.3220810510198344</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>41424</v>
       </c>
       <c r="B296" s="3">
         <v>12.4221875</v>
       </c>
-      <c r="C296" s="1">
-        <v>85.550104166666699</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
+      <c r="C296" s="3">
+        <v>9.131842557670911</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>41425</v>
       </c>
       <c r="B297" s="3">
         <v>12.6514583333333</v>
       </c>
-      <c r="C297" s="1">
-        <v>86.055520833333304</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
+      <c r="C297" s="3">
+        <v>9.1384623897566826</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>41426</v>
       </c>
       <c r="B298" s="3">
         <v>14.204166666666699</v>
       </c>
-      <c r="C298" s="1">
-        <v>86.159062500000005</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3">
+      <c r="C298" s="3">
+        <v>8.8396785335781889</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>41427</v>
       </c>
       <c r="B299" s="3">
         <v>14.655625000000001</v>
       </c>
-      <c r="C299" s="1">
-        <v>85.8020833333333</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3">
+      <c r="C299" s="3">
+        <v>8.716842154163972</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>41428</v>
       </c>
       <c r="B300" s="3">
         <v>14.0040625</v>
       </c>
-      <c r="C300" s="1">
-        <v>85.415312499999999</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
+      <c r="C300" s="3">
+        <v>8.8018997704655746</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>41429</v>
       </c>
       <c r="B301" s="3">
         <v>13.7128125</v>
       </c>
-      <c r="C301" s="1">
-        <v>85.737083333333302</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
+      <c r="C301" s="3">
+        <v>8.8918926786836661</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>41430</v>
       </c>
       <c r="B302" s="3">
         <v>13.4204166666667</v>
       </c>
-      <c r="C302" s="1">
-        <v>85.362916666666706</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3">
+      <c r="C302" s="3">
+        <v>8.9105552523910223</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>41431</v>
       </c>
       <c r="B303" s="3">
         <v>13.831666666666701</v>
       </c>
-      <c r="C303" s="1">
-        <v>84.7369791666667</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3">
+      <c r="C303" s="3">
+        <v>8.7651699913685412</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>41432</v>
       </c>
       <c r="B304" s="3">
         <v>14.217395833333301</v>
       </c>
-      <c r="C304" s="1">
-        <v>85.956979166666699</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3">
+      <c r="C304" s="3">
+        <v>8.816392774345946</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>41433</v>
       </c>
       <c r="B305" s="3">
         <v>14.365625</v>
       </c>
-      <c r="C305" s="1">
-        <v>86.838125000000005</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3">
+      <c r="C305" s="3">
+        <v>8.8779667864570335</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>41434</v>
       </c>
       <c r="B306" s="3">
         <v>14.598750000000001</v>
       </c>
-      <c r="C306" s="1">
-        <v>86.136666666666699</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
+      <c r="C306" s="3">
+        <v>8.7616528036424022</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>41435</v>
       </c>
       <c r="B307" s="3">
         <v>14.211458333333301</v>
       </c>
-      <c r="C307" s="1">
-        <v>85.136145833333302</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3">
+      <c r="C307" s="3">
+        <v>8.7333364900958479</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>41436</v>
       </c>
       <c r="B308" s="3">
         <v>15.598333333333301</v>
       </c>
-      <c r="C308" s="1">
-        <v>85.474166666666704</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3">
+      <c r="C308" s="3">
+        <v>8.5089787875619063</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>41437</v>
       </c>
       <c r="B309" s="3">
         <v>16.004999999999999</v>
       </c>
-      <c r="C309" s="1">
-        <v>83.871250000000003</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3">
+      <c r="C309" s="3">
+        <v>8.2774205935000911</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>41438</v>
       </c>
       <c r="B310" s="3">
         <v>14.86125</v>
       </c>
-      <c r="C310" s="1">
-        <v>82.374166666666696</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
+      <c r="C310" s="3">
+        <v>8.3313741781329682</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>41439</v>
       </c>
       <c r="B311" s="3">
         <v>14.925000000000001</v>
       </c>
-      <c r="C311" s="1">
-        <v>83.292916666666699</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
+      <c r="C311" s="3">
+        <v>8.4126907632423578</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>41440</v>
       </c>
       <c r="B312" s="3">
         <v>14.848333333333301</v>
       </c>
-      <c r="C312" s="1">
-        <v>83.145416666666705</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3">
+      <c r="C312" s="3">
+        <v>8.4117298257344402</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>41441</v>
       </c>
       <c r="B313" s="3">
         <v>15.255000000000001</v>
       </c>
-      <c r="C313" s="1">
-        <v>81.957083333333301</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
+      <c r="C313" s="3">
+        <v>8.2191022132856588</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>41442</v>
       </c>
       <c r="B314" s="3">
         <v>15.790416666666699</v>
       </c>
-      <c r="C314" s="1">
-        <v>84.132499999999993</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3">
+      <c r="C314" s="3">
+        <v>8.3411671995209691</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>41443</v>
       </c>
       <c r="B315" s="3">
         <v>16.435416666666701</v>
       </c>
-      <c r="C315" s="1">
-        <v>82.825416666666698</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3">
+      <c r="C315" s="3">
+        <v>8.1001559290905227</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>41444</v>
       </c>
       <c r="B316" s="3">
         <v>17.71</v>
       </c>
-      <c r="C316" s="1">
-        <v>81.375416666666695</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3">
+      <c r="C316" s="3">
+        <v>7.7497133937551617</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>41445</v>
       </c>
       <c r="B317" s="3">
         <v>17.96125</v>
       </c>
-      <c r="C317" s="1">
-        <v>80.594999999999999</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3">
+      <c r="C317" s="3">
+        <v>7.6358072751885357</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>41446</v>
       </c>
       <c r="B318" s="3">
         <v>18.4441666666667</v>
       </c>
-      <c r="C318" s="1">
-        <v>77.577500000000001</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3">
+      <c r="C318" s="3">
+        <v>7.27767331909837</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>41447</v>
       </c>
       <c r="B319" s="3">
         <v>17.0283333333333</v>
       </c>
-      <c r="C319" s="1">
-        <v>76.378749999999997</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3">
+      <c r="C319" s="3">
+        <v>7.377423827006016</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>41448</v>
       </c>
       <c r="B320" s="3">
         <v>15.9920833333333</v>
       </c>
-      <c r="C320" s="1">
-        <v>80.2129166666667</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3">
+      <c r="C320" s="3">
+        <v>7.9185427200880394</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>41449</v>
       </c>
       <c r="B321" s="3">
         <v>15.2504166666667</v>
       </c>
-      <c r="C321" s="1">
-        <v>77.2604166666667</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3">
+      <c r="C321" s="3">
+        <v>7.748858239043944</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>41450</v>
       </c>
       <c r="B322" s="3">
         <v>15.1979166666667</v>
       </c>
-      <c r="C322" s="1">
-        <v>78.757499999999993</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3">
+      <c r="C322" s="3">
+        <v>7.9079313320968776</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>41451</v>
       </c>
       <c r="B323" s="3">
         <v>15.2983333333333</v>
       </c>
-      <c r="C323" s="1">
-        <v>80.850833333333298</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3">
+      <c r="C323" s="3">
+        <v>8.1006162819050083</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>41452</v>
       </c>
       <c r="B324" s="3">
         <v>13.9004166666667</v>
       </c>
-      <c r="C324" s="1">
-        <v>77.760833333333295</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3">
+      <c r="C324" s="3">
+        <v>8.0313952274543468</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>41453</v>
       </c>
       <c r="B325" s="3">
         <v>13.827916666666701</v>
       </c>
-      <c r="C325" s="1">
-        <v>78.285416666666706</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3">
+      <c r="C325" s="3">
+        <v>8.0984910569069015</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>41454</v>
       </c>
       <c r="B326" s="3">
         <v>13.4</v>
       </c>
-      <c r="C326" s="1">
-        <v>77.914166666666702</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3">
+      <c r="C326" s="3">
+        <v>8.1367073890295281</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>41455</v>
       </c>
       <c r="B327" s="3">
         <v>13.17625</v>
       </c>
-      <c r="C327" s="1">
-        <v>76.971666666666707</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
+      <c r="C327" s="3">
+        <v>8.0783737723720552</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>41456</v>
       </c>
       <c r="B328" s="3">
         <v>13.860416666666699</v>
       </c>
-      <c r="C328" s="1">
-        <v>80.258333333333297</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
+      <c r="C328" s="3">
+        <v>8.2966457517266914</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>41457</v>
       </c>
       <c r="B329" s="3">
         <v>13.9933333333333</v>
       </c>
-      <c r="C329" s="1">
-        <v>80.459583333333299</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
+      <c r="C329" s="3">
+        <v>8.2931744762154924</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>41458</v>
       </c>
       <c r="B330" s="3">
         <v>14.331666666666701</v>
       </c>
-      <c r="C330" s="1">
-        <v>80.524583333333297</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
+      <c r="C330" s="3">
+        <v>8.238601823313914</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>41459</v>
       </c>
       <c r="B331" s="3">
         <v>14.2366666666667</v>
       </c>
-      <c r="C331" s="1">
-        <v>80.232083333333406</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
+      <c r="C331" s="3">
+        <v>8.2257360383985443</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>41460</v>
       </c>
       <c r="B332" s="3">
         <v>15.1016666666667</v>
       </c>
-      <c r="C332" s="1">
-        <v>80.676666666666605</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
+      <c r="C332" s="3">
+        <v>8.117437218579342</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>41461</v>
       </c>
       <c r="B333" s="3">
         <v>15.890416666666701</v>
       </c>
-      <c r="C333" s="1">
-        <v>81.574166666666699</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
+      <c r="C333" s="3">
+        <v>8.0703345410109009</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>41462</v>
       </c>
       <c r="B334" s="3">
         <v>18.1591666666667</v>
       </c>
-      <c r="C334" s="1">
-        <v>84.933750000000003</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
+      <c r="C334" s="3">
+        <v>8.0142855138003473</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>41463</v>
       </c>
       <c r="B335" s="3">
         <v>16.8675</v>
       </c>
-      <c r="C335" s="1">
-        <v>83.3379166666667</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3">
+      <c r="C335" s="3">
+        <v>8.0766945095036409</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>41464</v>
       </c>
       <c r="B336" s="3">
         <v>17.7425</v>
       </c>
-      <c r="C336" s="1">
-        <v>82.564166666666694</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3">
+      <c r="C336" s="3">
+        <v>7.8576561906055069</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>41465</v>
       </c>
       <c r="B337" s="3">
         <v>16.629166666666698</v>
       </c>
-      <c r="C337" s="1">
-        <v>81.158749999999998</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3">
+      <c r="C337" s="3">
+        <v>7.9048821429031522</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>41466</v>
       </c>
       <c r="B338" s="3">
         <v>17.068750000000001</v>
       </c>
-      <c r="C338" s="1">
-        <v>74.210833333333298</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3">
+      <c r="C338" s="3">
+        <v>7.1619867868697487</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>41467</v>
       </c>
       <c r="B339" s="3">
         <v>18.173749999999998</v>
       </c>
-      <c r="C339" s="1">
-        <v>65.815833333333302</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3">
+      <c r="C339" s="3">
+        <v>6.2084796946788749</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>41468</v>
       </c>
       <c r="B340" s="3">
         <v>19.692499999999999</v>
       </c>
-      <c r="C340" s="1">
-        <v>68.384166666666701</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3">
+      <c r="C340" s="3">
+        <v>6.2557259069995448</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>41469</v>
       </c>
       <c r="B341" s="3">
         <v>18.363333333333301</v>
       </c>
-      <c r="C341" s="1">
-        <v>75.434166666666698</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3">
+      <c r="C341" s="3">
+        <v>7.0882757588392939</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>41470</v>
       </c>
       <c r="B342" s="3">
         <v>17.414583333333301</v>
       </c>
-      <c r="C342" s="1">
-        <v>77.231250000000003</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3">
+      <c r="C342" s="3">
+        <v>7.4001028188624591</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>41471</v>
       </c>
       <c r="B343" s="3">
         <v>16.594583333333301</v>
       </c>
-      <c r="C343" s="1">
-        <v>67.415833333333296</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
+      <c r="C343" s="3">
+        <v>6.5710900101090548</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>41472</v>
       </c>
       <c r="B344" s="3">
         <v>16.9345833333333</v>
       </c>
-      <c r="C344" s="1">
-        <v>66.956249999999997</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3">
+      <c r="C344" s="3">
+        <v>6.4799728524310725</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>41473</v>
       </c>
       <c r="B345" s="3">
         <v>17.078749999999999</v>
       </c>
-      <c r="C345" s="1">
-        <v>70.971666666666707</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
+      <c r="C345" s="3">
+        <v>6.8479518402069779</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>41474</v>
       </c>
       <c r="B346" s="3">
         <v>17.27</v>
       </c>
-      <c r="C346" s="1">
-        <v>74.175416666666706</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3">
+      <c r="C346" s="3">
+        <v>7.1286536785650751</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>41475</v>
       </c>
       <c r="B347" s="3">
         <v>17.893750000000001</v>
       </c>
-      <c r="C347" s="1">
-        <v>71.426666666666705</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
+      <c r="C347" s="3">
+        <v>6.7765650366797123</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>41476</v>
       </c>
       <c r="B348" s="3">
         <v>18.311666666666699</v>
       </c>
-      <c r="C348" s="1">
-        <v>76.000416666666695</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3">
+      <c r="C348" s="3">
+        <v>7.1490190653570247</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>41477</v>
       </c>
       <c r="B349" s="3">
         <v>19.900833333333299</v>
       </c>
-      <c r="C349" s="1">
-        <v>79.776250000000005</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
+      <c r="C349" s="3">
+        <v>7.2676203246303999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>41478</v>
       </c>
       <c r="B350" s="3">
         <v>20.635833333333299</v>
       </c>
-      <c r="C350" s="1">
-        <v>77.795416666666696</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
+      <c r="C350" s="3">
+        <v>6.9848531163616965</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>41479</v>
       </c>
       <c r="B351" s="3">
         <v>20.7216666666667</v>
       </c>
-      <c r="C351" s="1">
-        <v>76.031666666666695</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
+      <c r="C351" s="3">
+        <v>6.8149872064068449</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>41480</v>
       </c>
       <c r="B352" s="3">
         <v>21.047499999999999</v>
       </c>
-      <c r="C352" s="1">
-        <v>75.449583333333294</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3">
+      <c r="C352" s="3">
+        <v>6.7197762185954675</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>41481</v>
       </c>
       <c r="B353" s="3">
         <v>21.430416666666702</v>
       </c>
-      <c r="C353" s="1">
-        <v>75.517916666666693</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3">
+      <c r="C353" s="3">
+        <v>6.6758664254174498</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>41482</v>
       </c>
       <c r="B354" s="3">
         <v>22.1220833333333</v>
       </c>
-      <c r="C354" s="1">
-        <v>75.030833333333305</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3">
+      <c r="C354" s="3">
+        <v>6.5447456314215939</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>41483</v>
       </c>
       <c r="B355" s="3">
         <v>21.550416666666699</v>
       </c>
-      <c r="C355" s="1">
-        <v>70.9791666666667</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3">
+      <c r="C355" s="3">
+        <v>6.2600387967278985</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>41484</v>
       </c>
       <c r="B356" s="3">
         <v>20.555416666666702</v>
       </c>
-      <c r="C356" s="1">
-        <v>67.216666666666697</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
+      <c r="C356" s="3">
+        <v>6.0446008690540403</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>41485</v>
       </c>
       <c r="B357" s="3">
         <v>20</v>
       </c>
-      <c r="C357" s="1">
-        <v>71.12</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
+      <c r="C357" s="3">
+        <v>6.4662721946878579</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>41486</v>
       </c>
       <c r="B358" s="3">
         <v>19.286666666666701</v>
       </c>
-      <c r="C358" s="1">
-        <v>70.727916666666701</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3">
+      <c r="C358" s="3">
+        <v>6.5229442948783198</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>41487</v>
       </c>
       <c r="B359" s="3">
         <v>18.655833333333302</v>
       </c>
-      <c r="C359" s="1">
-        <v>70.562916666666695</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3">
+      <c r="C359" s="3">
+        <v>6.5911864266624072</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>41488</v>
       </c>
       <c r="B360" s="3">
         <v>19.48</v>
       </c>
-      <c r="C360" s="1">
-        <v>71.761666666666699</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3">
+      <c r="C360" s="3">
+        <v>6.5926571910346956</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>41489</v>
       </c>
       <c r="B361" s="3">
         <v>19.326250000000002</v>
       </c>
-      <c r="C361" s="1">
-        <v>71.429166666666703</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3">
+      <c r="C361" s="3">
+        <v>6.582380841826347</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>41490</v>
       </c>
       <c r="B362" s="3">
         <v>18.5729166666667</v>
       </c>
-      <c r="C362" s="1">
-        <v>74.675416666666706</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3">
+      <c r="C362" s="3">
+        <v>6.9870906871415892</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>41491</v>
       </c>
       <c r="B363" s="3">
         <v>18.289166666666699</v>
       </c>
-      <c r="C363" s="1">
-        <v>74.125</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
+      <c r="C363" s="3">
+        <v>6.9758117157670547</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>41492</v>
       </c>
       <c r="B364" s="3">
         <v>17.592916666666699</v>
       </c>
-      <c r="C364" s="1">
-        <v>74.008333333333297</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3">
+      <c r="C364" s="3">
+        <v>7.0651708610923594</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>41493</v>
       </c>
       <c r="B365" s="3">
         <v>17.192916666666701</v>
       </c>
-      <c r="C365" s="1">
-        <v>74.759583333333296</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3">
+      <c r="C365" s="3">
+        <v>7.1963167473969909</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>41494</v>
       </c>
       <c r="B366" s="3">
         <v>17.350833333333298</v>
       </c>
-      <c r="C366" s="1">
-        <v>72.411666666666704</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3">
+      <c r="C366" s="3">
+        <v>6.9474798317293258</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>41495</v>
       </c>
       <c r="B367" s="3">
         <v>16.894583333333301</v>
       </c>
-      <c r="C367" s="1">
-        <v>70.707916666666705</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3">
+      <c r="C367" s="3">
+        <v>6.84877857721278</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>41496</v>
       </c>
       <c r="B368" s="3">
         <v>16.953749999999999</v>
       </c>
-      <c r="C368" s="1">
-        <v>73.603750000000005</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3">
+      <c r="C368" s="3">
+        <v>7.1204615355722192</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>41497</v>
       </c>
       <c r="B369" s="3">
         <v>16.758333333333301</v>
       </c>
-      <c r="C369" s="1">
-        <v>73.53125</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3">
+      <c r="C369" s="3">
+        <v>7.1425846696111162</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>41498</v>
       </c>
       <c r="B370" s="3">
         <v>16.3304166666667</v>
       </c>
-      <c r="C370" s="1">
-        <v>72.7245833333333</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3">
+      <c r="C370" s="3">
+        <v>7.1280784501269041</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>41499</v>
       </c>
       <c r="B371" s="3">
         <v>15.740833333333301</v>
       </c>
-      <c r="C371" s="1">
-        <v>73.515416666666695</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3">
+      <c r="C371" s="3">
+        <v>7.2962592662966532</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>41500</v>
       </c>
       <c r="B372" s="3">
         <v>14.99625</v>
       </c>
-      <c r="C372" s="1">
-        <v>73.450833333333307</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3">
+      <c r="C372" s="3">
+        <v>7.4072186754938922</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>41501</v>
       </c>
       <c r="B373" s="3">
         <v>15.921250000000001</v>
       </c>
-      <c r="C373" s="1">
-        <v>72.887500000000003</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3">
+      <c r="C373" s="3">
+        <v>7.206216729288208</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>41502</v>
       </c>
       <c r="B374" s="3">
         <v>15.8816666666667</v>
       </c>
-      <c r="C374" s="1">
-        <v>74.298333333333304</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3">
+      <c r="C374" s="3">
+        <v>7.3518859887783172</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>41503</v>
       </c>
       <c r="B375" s="3">
         <v>15.629583333333301</v>
       </c>
-      <c r="C375" s="1">
-        <v>72.391249999999999</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3">
+      <c r="C375" s="3">
+        <v>7.2017614733177986</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>41504</v>
       </c>
       <c r="B376" s="3">
         <v>15.2475</v>
       </c>
-      <c r="C376" s="1">
-        <v>73.281666666666695</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3">
+      <c r="C376" s="3">
+        <v>7.3502690290408701</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>41505</v>
       </c>
       <c r="B377" s="3">
         <v>14.7008333333333</v>
       </c>
-      <c r="C377" s="1">
-        <v>74.687083333333305</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3">
+      <c r="C377" s="3">
+        <v>7.5802001328842312</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>41506</v>
       </c>
       <c r="B378" s="3">
         <v>14.6804166666667</v>
       </c>
-      <c r="C378" s="1">
-        <v>74.950416666666698</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3">
+      <c r="C378" s="3">
+        <v>7.610297764883259</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>41507</v>
       </c>
       <c r="B379" s="3">
         <v>14.624166666666699</v>
       </c>
-      <c r="C379" s="1">
-        <v>73.183333333333294</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3">
+      <c r="C379" s="3">
+        <v>7.4399546358135078</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>41508</v>
       </c>
       <c r="B380" s="3">
         <v>14.4508333333333</v>
       </c>
-      <c r="C380" s="1">
-        <v>72.312916666666695</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3">
+      <c r="C380" s="3">
+        <v>7.379245393971507</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>41509</v>
       </c>
       <c r="B381" s="3">
         <v>15.1808333333333</v>
       </c>
-      <c r="C381" s="1">
-        <v>75.922499999999999</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3">
+      <c r="C381" s="3">
+        <v>7.6260755642647089</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>41510</v>
       </c>
       <c r="B382" s="3">
         <v>15.965</v>
       </c>
-      <c r="C382" s="1">
-        <v>75.463750000000005</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3">
+      <c r="C382" s="3">
+        <v>7.4539940295836233</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>41511</v>
       </c>
       <c r="B383" s="3">
         <v>16.463750000000001</v>
       </c>
-      <c r="C383" s="1">
-        <v>77.608750000000001</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3">
+      <c r="C383" s="3">
+        <v>7.5854488304740428</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>41512</v>
       </c>
       <c r="B384" s="3">
         <v>16.1910897435897</v>
       </c>
-      <c r="C384" s="1">
-        <v>77.718157051282105</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3">
+      <c r="C384" s="3">
+        <v>7.6399790053769028</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="2"/>
       <c r="C385" s="1"/>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="2"/>
       <c r="C386" s="1"/>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="2"/>
       <c r="C387" s="1"/>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="2"/>
       <c r="C388" s="1"/>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="2"/>
       <c r="C389" s="1"/>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="2"/>
       <c r="C390" s="1"/>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="2"/>
       <c r="C391" s="1"/>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="2"/>
       <c r="C392" s="1"/>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="2"/>
       <c r="C393" s="1"/>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="2"/>
       <c r="C394" s="1"/>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="2"/>
       <c r="C395" s="1"/>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="2"/>
       <c r="C396" s="1"/>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="2"/>
       <c r="C397" s="1"/>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="2"/>
       <c r="C398" s="1"/>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="2"/>
       <c r="C399" s="1"/>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="2"/>
       <c r="C400" s="1"/>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="2"/>
       <c r="C401" s="1"/>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="2"/>
       <c r="C402" s="1"/>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="2"/>
       <c r="C403" s="1"/>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="2"/>
       <c r="C404" s="1"/>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="2"/>
       <c r="C405" s="1"/>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="2"/>
       <c r="C406" s="1"/>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="2"/>
       <c r="C407" s="1"/>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="2"/>
       <c r="C408" s="1"/>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="2"/>
       <c r="C409" s="1"/>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="2"/>
       <c r="C410" s="1"/>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="2"/>
       <c r="C411" s="1"/>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="2"/>
       <c r="C412" s="1"/>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="2"/>
       <c r="C413" s="1"/>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="2"/>
       <c r="C414" s="1"/>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="2"/>
       <c r="C415" s="1"/>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="2"/>
       <c r="C416" s="1"/>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="2"/>
       <c r="C417" s="1"/>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="2"/>
       <c r="C418" s="1"/>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="2"/>
       <c r="C419" s="1"/>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="2"/>
       <c r="C420" s="1"/>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="2"/>
       <c r="C421" s="1"/>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="2"/>
       <c r="C422" s="1"/>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="2"/>
       <c r="C423" s="1"/>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="2"/>
       <c r="C424" s="1"/>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="2"/>
       <c r="C425" s="1"/>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="2"/>
       <c r="C426" s="1"/>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="2"/>
       <c r="C427" s="1"/>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="2"/>
       <c r="C428" s="1"/>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="2"/>
       <c r="C429" s="1"/>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="2"/>
       <c r="C430" s="1"/>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="2"/>
       <c r="C431" s="1"/>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="2"/>
       <c r="C432" s="1"/>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="2"/>
       <c r="C433" s="1"/>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="2"/>
       <c r="C434" s="1"/>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="2"/>
       <c r="C435" s="1"/>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="2"/>
       <c r="C436" s="1"/>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="2"/>
       <c r="C437" s="1"/>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="2"/>
       <c r="C438" s="1"/>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="2"/>
       <c r="C439" s="1"/>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="2"/>
       <c r="C440" s="1"/>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="2"/>
       <c r="C441" s="1"/>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="2"/>
       <c r="C442" s="1"/>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="2"/>
       <c r="C443" s="1"/>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" s="2"/>
       <c r="C444" s="1"/>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="2"/>
       <c r="C445" s="1"/>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="2"/>
       <c r="C446" s="1"/>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="2"/>
       <c r="C447" s="1"/>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="2"/>
       <c r="C448" s="1"/>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" s="2"/>
       <c r="C449" s="1"/>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="2"/>
       <c r="C450" s="1"/>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="2"/>
       <c r="C451" s="1"/>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="2"/>
       <c r="C452" s="1"/>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="2"/>
       <c r="C453" s="1"/>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" s="2"/>
       <c r="C454" s="1"/>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="2"/>
       <c r="C455" s="1"/>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" s="2"/>
       <c r="C456" s="1"/>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="2"/>
       <c r="C457" s="1"/>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="2"/>
       <c r="C458" s="1"/>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="2"/>
       <c r="C459" s="1"/>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="2"/>
       <c r="C460" s="1"/>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="2"/>
       <c r="C461" s="1"/>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="2"/>
       <c r="C462" s="1"/>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="2"/>
       <c r="C463" s="1"/>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="2"/>
       <c r="C464" s="1"/>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" s="2"/>
       <c r="C465" s="1"/>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" s="2"/>
       <c r="C466" s="1"/>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" s="2"/>
       <c r="C467" s="1"/>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="2"/>
       <c r="C468" s="1"/>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" s="2"/>
       <c r="C469" s="1"/>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="2"/>
       <c r="C470" s="1"/>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" s="2"/>
       <c r="C471" s="1"/>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="2"/>
       <c r="C472" s="1"/>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="2"/>
       <c r="C473" s="1"/>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" s="2"/>
       <c r="C474" s="1"/>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" s="2"/>
       <c r="C475" s="1"/>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" s="2"/>
       <c r="C476" s="1"/>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" s="2"/>
       <c r="C477" s="1"/>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" s="2"/>
       <c r="C478" s="1"/>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" s="2"/>
       <c r="C479" s="1"/>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" s="2"/>
       <c r="C480" s="1"/>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" s="2"/>
       <c r="C481" s="1"/>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" s="2"/>
       <c r="C482" s="1"/>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" s="2"/>
       <c r="C483" s="1"/>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" s="2"/>
       <c r="C484" s="1"/>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" s="2"/>
       <c r="C485" s="1"/>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" s="2"/>
       <c r="C486" s="1"/>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" s="2"/>
       <c r="C487" s="1"/>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" s="2"/>
       <c r="C488" s="1"/>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" s="2"/>
       <c r="C489" s="1"/>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" s="2"/>
       <c r="C490" s="1"/>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" s="2"/>
       <c r="C491" s="1"/>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" s="2"/>
       <c r="C492" s="1"/>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" s="2"/>
       <c r="C493" s="1"/>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="2"/>
       <c r="C494" s="1"/>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" s="2"/>
       <c r="C495" s="1"/>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" s="2"/>
       <c r="C496" s="1"/>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" s="2"/>
       <c r="C497" s="1"/>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="2"/>
       <c r="C498" s="1"/>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="2"/>
       <c r="C499" s="1"/>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="2"/>
       <c r="C500" s="1"/>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="2"/>
       <c r="C501" s="1"/>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="2"/>
       <c r="C502" s="1"/>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="2"/>
       <c r="C503" s="1"/>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" s="2"/>
       <c r="C504" s="1"/>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="2"/>
       <c r="C505" s="1"/>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" s="2"/>
       <c r="C506" s="1"/>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" s="2"/>
       <c r="C507" s="1"/>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" s="2"/>
       <c r="C508" s="1"/>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" s="2"/>
       <c r="C509" s="1"/>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" s="2"/>
       <c r="C510" s="1"/>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" s="2"/>
       <c r="C511" s="1"/>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="2"/>
       <c r="C512" s="1"/>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" s="2"/>
       <c r="C513" s="1"/>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" s="2"/>
       <c r="C514" s="1"/>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" s="2"/>
       <c r="C515" s="1"/>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" s="2"/>
       <c r="C516" s="1"/>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" s="2"/>
       <c r="C517" s="1"/>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" s="2"/>
       <c r="C518" s="1"/>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" s="2"/>
       <c r="C519" s="1"/>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" s="2"/>
       <c r="C520" s="1"/>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" s="2"/>
       <c r="C521" s="1"/>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" s="2"/>
       <c r="C522" s="1"/>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" s="2"/>
       <c r="C523" s="1"/>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" s="2"/>
       <c r="C524" s="1"/>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" s="2"/>
       <c r="C525" s="1"/>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" s="2"/>
       <c r="C526" s="1"/>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" s="2"/>
       <c r="C527" s="1"/>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" s="2"/>
       <c r="C528" s="1"/>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" s="2"/>
       <c r="C529" s="1"/>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" s="2"/>
       <c r="C530" s="1"/>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" s="2"/>
       <c r="C531" s="1"/>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" s="2"/>
       <c r="C532" s="1"/>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" s="2"/>
       <c r="C533" s="1"/>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" s="2"/>
       <c r="C534" s="1"/>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" s="2"/>
       <c r="C535" s="1"/>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" s="2"/>
       <c r="C536" s="1"/>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" s="2"/>
       <c r="C537" s="1"/>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" s="2"/>
       <c r="C538" s="1"/>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" s="2"/>
       <c r="C539" s="1"/>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" s="2"/>
       <c r="C540" s="1"/>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" s="2"/>
       <c r="C541" s="1"/>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" s="2"/>
       <c r="C542" s="1"/>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" s="2"/>
       <c r="C543" s="1"/>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" s="2"/>
       <c r="C544" s="1"/>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" s="2"/>
       <c r="C545" s="1"/>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" s="2"/>
       <c r="C546" s="1"/>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" s="2"/>
       <c r="C547" s="1"/>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" s="2"/>
       <c r="C548" s="1"/>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" s="2"/>
       <c r="C549" s="1"/>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" s="2"/>
       <c r="C550" s="1"/>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" s="2"/>
       <c r="C551" s="1"/>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" s="2"/>
       <c r="C552" s="1"/>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" s="2"/>
       <c r="C553" s="1"/>
     </row>
-    <row r="554" spans="1:3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" s="2"/>
       <c r="C554" s="1"/>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" s="2"/>
       <c r="C555" s="1"/>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" s="2"/>
       <c r="C556" s="1"/>
     </row>
-    <row r="557" spans="1:3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" s="2"/>
       <c r="C557" s="1"/>
     </row>
-    <row r="558" spans="1:3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" s="2"/>
       <c r="C558" s="1"/>
     </row>
-    <row r="559" spans="1:3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" s="2"/>
       <c r="C559" s="1"/>
     </row>
-    <row r="560" spans="1:3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" s="2"/>
       <c r="C560" s="1"/>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" s="2"/>
       <c r="C561" s="1"/>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" s="2"/>
       <c r="C562" s="1"/>
     </row>
-    <row r="563" spans="1:3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" s="2"/>
       <c r="C563" s="1"/>
     </row>
-    <row r="564" spans="1:3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" s="2"/>
       <c r="C564" s="1"/>
     </row>
-    <row r="565" spans="1:3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" s="2"/>
       <c r="C565" s="1"/>
     </row>
-    <row r="566" spans="1:3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" s="2"/>
       <c r="C566" s="1"/>
     </row>
-    <row r="567" spans="1:3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" s="2"/>
       <c r="C567" s="1"/>
     </row>
-    <row r="568" spans="1:3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" s="2"/>
       <c r="C568" s="1"/>
     </row>
-    <row r="569" spans="1:3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" s="2"/>
       <c r="C569" s="1"/>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" s="2"/>
       <c r="C570" s="1"/>
     </row>
-    <row r="571" spans="1:3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" s="2"/>
       <c r="C571" s="1"/>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" s="2"/>
       <c r="C572" s="1"/>
     </row>
-    <row r="573" spans="1:3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" s="2"/>
       <c r="C573" s="1"/>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" s="2"/>
       <c r="C574" s="1"/>
     </row>
-    <row r="575" spans="1:3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" s="2"/>
       <c r="C575" s="1"/>
     </row>
-    <row r="576" spans="1:3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" s="2"/>
       <c r="C576" s="1"/>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" s="2"/>
       <c r="C577" s="1"/>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" s="2"/>
       <c r="C578" s="1"/>
     </row>
-    <row r="579" spans="1:3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" s="2"/>
       <c r="C579" s="1"/>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" s="2"/>
       <c r="C580" s="1"/>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" s="2"/>
       <c r="C581" s="1"/>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" s="2"/>
       <c r="C582" s="1"/>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" s="2"/>
       <c r="C583" s="1"/>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" s="2"/>
       <c r="C584" s="1"/>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" s="2"/>
       <c r="C585" s="1"/>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" s="2"/>
       <c r="C586" s="1"/>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" s="2"/>
       <c r="C587" s="1"/>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" s="2"/>
       <c r="C588" s="1"/>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" s="2"/>
       <c r="C589" s="1"/>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" s="2"/>
       <c r="C590" s="1"/>
     </row>
-    <row r="591" spans="1:3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" s="2"/>
       <c r="C591" s="1"/>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" s="2"/>
       <c r="C592" s="1"/>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" s="2"/>
       <c r="C593" s="1"/>
     </row>
-    <row r="594" spans="1:3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" s="2"/>
       <c r="C594" s="1"/>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" s="2"/>
       <c r="C595" s="1"/>
     </row>
-    <row r="596" spans="1:3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" s="2"/>
       <c r="C596" s="1"/>
     </row>
-    <row r="597" spans="1:3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" s="2"/>
       <c r="C597" s="1"/>
     </row>
-    <row r="598" spans="1:3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" s="2"/>
       <c r="C598" s="1"/>
     </row>
-    <row r="599" spans="1:3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" s="2"/>
       <c r="C599" s="1"/>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" s="2"/>
       <c r="C600" s="1"/>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" s="2"/>
       <c r="C601" s="1"/>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" s="2"/>
       <c r="C602" s="1"/>
     </row>
-    <row r="603" spans="1:3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" s="2"/>
       <c r="C603" s="1"/>
     </row>
-    <row r="604" spans="1:3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" s="2"/>
       <c r="C604" s="1"/>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" s="2"/>
       <c r="C605" s="1"/>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" s="2"/>
       <c r="C606" s="1"/>
     </row>
-    <row r="607" spans="1:3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" s="2"/>
       <c r="C607" s="1"/>
     </row>
-    <row r="608" spans="1:3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" s="2"/>
       <c r="C608" s="1"/>
     </row>
-    <row r="609" spans="1:3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" s="2"/>
       <c r="C609" s="1"/>
     </row>
-    <row r="610" spans="1:3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" s="2"/>
       <c r="C610" s="1"/>
     </row>
-    <row r="611" spans="1:3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" s="2"/>
       <c r="C611" s="1"/>
     </row>
-    <row r="612" spans="1:3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" s="2"/>
       <c r="C612" s="1"/>
     </row>
-    <row r="613" spans="1:3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" s="2"/>
       <c r="C613" s="1"/>
     </row>
-    <row r="614" spans="1:3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" s="2"/>
       <c r="C614" s="1"/>
     </row>
-    <row r="615" spans="1:3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" s="2"/>
       <c r="C615" s="1"/>
     </row>
-    <row r="616" spans="1:3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" s="2"/>
       <c r="C616" s="1"/>
     </row>
-    <row r="617" spans="1:3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" s="2"/>
       <c r="C617" s="1"/>
     </row>
-    <row r="618" spans="1:3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" s="2"/>
       <c r="C618" s="1"/>
     </row>
-    <row r="619" spans="1:3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" s="2"/>
       <c r="C619" s="1"/>
     </row>
-    <row r="620" spans="1:3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" s="2"/>
       <c r="C620" s="1"/>
     </row>
-    <row r="621" spans="1:3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" s="2"/>
       <c r="C621" s="1"/>
     </row>
-    <row r="622" spans="1:3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" s="2"/>
       <c r="C622" s="1"/>
     </row>
-    <row r="623" spans="1:3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" s="2"/>
       <c r="C623" s="1"/>
     </row>
-    <row r="624" spans="1:3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" s="2"/>
       <c r="C624" s="1"/>
     </row>
-    <row r="625" spans="1:3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" s="2"/>
       <c r="C625" s="1"/>
     </row>
-    <row r="626" spans="1:3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="2"/>
       <c r="C626" s="1"/>
     </row>
-    <row r="627" spans="1:3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" s="2"/>
       <c r="C627" s="1"/>
     </row>
-    <row r="628" spans="1:3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" s="2"/>
       <c r="C628" s="1"/>
     </row>
-    <row r="629" spans="1:3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" s="2"/>
       <c r="C629" s="1"/>
     </row>
-    <row r="630" spans="1:3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" s="2"/>
       <c r="C630" s="1"/>
     </row>
-    <row r="631" spans="1:3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" s="2"/>
       <c r="C631" s="1"/>
     </row>
-    <row r="632" spans="1:3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" s="2"/>
       <c r="C632" s="1"/>
     </row>
-    <row r="633" spans="1:3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" s="2"/>
       <c r="C633" s="1"/>
     </row>
-    <row r="634" spans="1:3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" s="2"/>
       <c r="C634" s="1"/>
     </row>
-    <row r="635" spans="1:3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" s="2"/>
       <c r="C635" s="1"/>
     </row>
-    <row r="636" spans="1:3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" s="2"/>
       <c r="C636" s="1"/>
     </row>
-    <row r="637" spans="1:3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" s="2"/>
       <c r="C637" s="1"/>
     </row>
-    <row r="638" spans="1:3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" s="2"/>
       <c r="C638" s="1"/>
     </row>
-    <row r="639" spans="1:3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" s="2"/>
       <c r="C639" s="1"/>
     </row>
-    <row r="640" spans="1:3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" s="2"/>
       <c r="C640" s="1"/>
     </row>
-    <row r="641" spans="1:3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" s="2"/>
       <c r="C641" s="1"/>
     </row>
-    <row r="642" spans="1:3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" s="2"/>
       <c r="C642" s="1"/>
     </row>
-    <row r="643" spans="1:3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" s="2"/>
       <c r="C643" s="1"/>
     </row>
-    <row r="644" spans="1:3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" s="2"/>
       <c r="C644" s="1"/>
     </row>
-    <row r="645" spans="1:3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" s="2"/>
       <c r="C645" s="1"/>
     </row>
-    <row r="646" spans="1:3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" s="2"/>
       <c r="C646" s="1"/>
     </row>
-    <row r="647" spans="1:3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" s="2"/>
       <c r="C647" s="1"/>
     </row>
-    <row r="648" spans="1:3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" s="2"/>
       <c r="C648" s="1"/>
     </row>
-    <row r="649" spans="1:3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" s="2"/>
       <c r="C649" s="1"/>
     </row>
-    <row r="650" spans="1:3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" s="2"/>
       <c r="C650" s="1"/>
     </row>
-    <row r="651" spans="1:3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" s="2"/>
       <c r="C651" s="1"/>
     </row>
-    <row r="652" spans="1:3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" s="2"/>
       <c r="C652" s="1"/>
     </row>
-    <row r="653" spans="1:3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" s="2"/>
       <c r="C653" s="1"/>
     </row>
-    <row r="654" spans="1:3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" s="2"/>
       <c r="C654" s="1"/>
     </row>
-    <row r="655" spans="1:3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" s="2"/>
       <c r="C655" s="1"/>
     </row>
-    <row r="656" spans="1:3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="2"/>
       <c r="C656" s="1"/>
     </row>
-    <row r="657" spans="1:3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="2"/>
       <c r="C657" s="1"/>
     </row>
-    <row r="658" spans="1:3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" s="2"/>
       <c r="C658" s="1"/>
     </row>
-    <row r="659" spans="1:3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" s="2"/>
       <c r="C659" s="1"/>
     </row>
-    <row r="660" spans="1:3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" s="2"/>
       <c r="C660" s="1"/>
     </row>
-    <row r="661" spans="1:3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" s="2"/>
       <c r="C661" s="1"/>
     </row>
-    <row r="662" spans="1:3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" s="2"/>
       <c r="C662" s="1"/>
     </row>
-    <row r="663" spans="1:3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" s="2"/>
       <c r="C663" s="1"/>
     </row>
-    <row r="664" spans="1:3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" s="2"/>
       <c r="C664" s="1"/>
     </row>
-    <row r="665" spans="1:3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" s="2"/>
       <c r="C665" s="1"/>
     </row>
-    <row r="666" spans="1:3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" s="2"/>
       <c r="C666" s="1"/>
     </row>
-    <row r="667" spans="1:3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" s="2"/>
       <c r="C667" s="1"/>
     </row>
-    <row r="668" spans="1:3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" s="2"/>
       <c r="C668" s="1"/>
     </row>
-    <row r="669" spans="1:3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" s="2"/>
       <c r="C669" s="1"/>
     </row>
-    <row r="670" spans="1:3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" s="2"/>
       <c r="C670" s="1"/>
     </row>
-    <row r="671" spans="1:3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" s="2"/>
       <c r="C671" s="1"/>
     </row>
-    <row r="672" spans="1:3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" s="2"/>
       <c r="C672" s="1"/>
     </row>
-    <row r="673" spans="1:3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" s="2"/>
       <c r="C673" s="1"/>
     </row>
-    <row r="674" spans="1:3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" s="2"/>
       <c r="C674" s="1"/>
     </row>
-    <row r="675" spans="1:3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" s="2"/>
       <c r="C675" s="1"/>
     </row>
-    <row r="676" spans="1:3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" s="2"/>
       <c r="C676" s="1"/>
     </row>
-    <row r="677" spans="1:3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" s="2"/>
       <c r="C677" s="1"/>
     </row>
-    <row r="678" spans="1:3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" s="2"/>
       <c r="C678" s="1"/>
     </row>
-    <row r="679" spans="1:3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" s="2"/>
       <c r="C679" s="1"/>
     </row>
-    <row r="680" spans="1:3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" s="2"/>
       <c r="C680" s="1"/>
     </row>
-    <row r="681" spans="1:3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" s="2"/>
       <c r="C681" s="1"/>
     </row>
-    <row r="682" spans="1:3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" s="2"/>
       <c r="C682" s="1"/>
     </row>
-    <row r="683" spans="1:3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" s="2"/>
       <c r="C683" s="1"/>
     </row>
-    <row r="684" spans="1:3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" s="2"/>
       <c r="C684" s="1"/>
     </row>
-    <row r="685" spans="1:3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" s="2"/>
       <c r="C685" s="1"/>
     </row>
-    <row r="686" spans="1:3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" s="2"/>
       <c r="C686" s="1"/>
     </row>
-    <row r="687" spans="1:3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" s="2"/>
       <c r="C687" s="1"/>
     </row>
-    <row r="688" spans="1:3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" s="2"/>
       <c r="C688" s="1"/>
     </row>
-    <row r="689" spans="1:3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" s="2"/>
       <c r="C689" s="1"/>
     </row>
-    <row r="690" spans="1:3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" s="2"/>
       <c r="C690" s="1"/>
     </row>
-    <row r="691" spans="1:3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" s="2"/>
       <c r="C691" s="1"/>
     </row>
-    <row r="692" spans="1:3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" s="2"/>
       <c r="C692" s="1"/>
     </row>
-    <row r="693" spans="1:3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" s="2"/>
       <c r="C693" s="1"/>
     </row>
-    <row r="694" spans="1:3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" s="2"/>
       <c r="C694" s="1"/>
     </row>
-    <row r="695" spans="1:3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" s="2"/>
       <c r="C695" s="1"/>
     </row>
-    <row r="696" spans="1:3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" s="2"/>
       <c r="C696" s="1"/>
     </row>
-    <row r="697" spans="1:3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" s="2"/>
       <c r="C697" s="1"/>
     </row>
-    <row r="698" spans="1:3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" s="2"/>
       <c r="C698" s="1"/>
     </row>
-    <row r="699" spans="1:3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" s="2"/>
       <c r="C699" s="1"/>
     </row>
-    <row r="700" spans="1:3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" s="2"/>
       <c r="C700" s="1"/>
     </row>
-    <row r="701" spans="1:3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" s="2"/>
       <c r="C701" s="1"/>
     </row>
-    <row r="702" spans="1:3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" s="2"/>
       <c r="C702" s="1"/>
     </row>
-    <row r="703" spans="1:3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" s="2"/>
       <c r="C703" s="1"/>
     </row>
-    <row r="704" spans="1:3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" s="2"/>
       <c r="C704" s="1"/>
     </row>
-    <row r="705" spans="1:3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" s="2"/>
       <c r="C705" s="1"/>
     </row>
-    <row r="706" spans="1:3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" s="2"/>
       <c r="C706" s="1"/>
     </row>
-    <row r="707" spans="1:3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" s="2"/>
       <c r="C707" s="1"/>
     </row>
-    <row r="708" spans="1:3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" s="2"/>
       <c r="C708" s="1"/>
     </row>
-    <row r="709" spans="1:3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" s="2"/>
       <c r="C709" s="1"/>
     </row>
-    <row r="710" spans="1:3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" s="2"/>
       <c r="C710" s="1"/>
     </row>
-    <row r="711" spans="1:3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" s="2"/>
       <c r="C711" s="1"/>
     </row>
-    <row r="712" spans="1:3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" s="2"/>
       <c r="C712" s="1"/>
     </row>
-    <row r="713" spans="1:3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" s="2"/>
       <c r="C713" s="1"/>
     </row>
-    <row r="714" spans="1:3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" s="2"/>
       <c r="C714" s="1"/>
     </row>
-    <row r="715" spans="1:3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" s="2"/>
       <c r="C715" s="1"/>
     </row>
-    <row r="716" spans="1:3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" s="2"/>
       <c r="C716" s="1"/>
     </row>
-    <row r="717" spans="1:3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" s="2"/>
       <c r="C717" s="1"/>
     </row>
-    <row r="718" spans="1:3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" s="2"/>
       <c r="C718" s="1"/>
     </row>
-    <row r="719" spans="1:3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" s="2"/>
       <c r="C719" s="1"/>
     </row>
-    <row r="720" spans="1:3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" s="2"/>
       <c r="C720" s="1"/>
     </row>
-    <row r="721" spans="1:3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" s="2"/>
       <c r="C721" s="1"/>
     </row>
-    <row r="722" spans="1:3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" s="2"/>
       <c r="C722" s="1"/>
     </row>
-    <row r="723" spans="1:3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" s="2"/>
       <c r="C723" s="1"/>
     </row>
-    <row r="724" spans="1:3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" s="2"/>
       <c r="C724" s="1"/>
     </row>
-    <row r="725" spans="1:3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" s="2"/>
       <c r="C725" s="1"/>
     </row>
-    <row r="726" spans="1:3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" s="2"/>
       <c r="C726" s="1"/>
     </row>
-    <row r="727" spans="1:3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" s="2"/>
       <c r="C727" s="1"/>
     </row>
-    <row r="728" spans="1:3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" s="2"/>
       <c r="C728" s="1"/>
     </row>
-    <row r="729" spans="1:3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" s="2"/>
       <c r="C729" s="1"/>
     </row>
-    <row r="730" spans="1:3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" s="2"/>
       <c r="C730" s="1"/>
     </row>
-    <row r="731" spans="1:3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" s="2"/>
       <c r="C731" s="1"/>
     </row>
-    <row r="732" spans="1:3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" s="2"/>
       <c r="C732" s="1"/>
     </row>
-    <row r="733" spans="1:3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" s="2"/>
       <c r="C733" s="1"/>
     </row>
-    <row r="734" spans="1:3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" s="2"/>
       <c r="C734" s="1"/>
     </row>
-    <row r="735" spans="1:3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" s="2"/>
       <c r="C735" s="1"/>
     </row>
-    <row r="736" spans="1:3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" s="2"/>
       <c r="C736" s="1"/>
     </row>
-    <row r="737" spans="1:3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" s="2"/>
       <c r="C737" s="1"/>
     </row>
-    <row r="738" spans="1:3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" s="2"/>
       <c r="C738" s="1"/>
     </row>
-    <row r="739" spans="1:3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" s="2"/>
       <c r="C739" s="1"/>
     </row>
-    <row r="740" spans="1:3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" s="2"/>
       <c r="C740" s="1"/>
     </row>
-    <row r="741" spans="1:3">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" s="2"/>
       <c r="C741" s="1"/>
     </row>
-    <row r="742" spans="1:3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" s="2"/>
       <c r="C742" s="1"/>
     </row>
-    <row r="743" spans="1:3">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" s="2"/>
       <c r="C743" s="1"/>
     </row>
-    <row r="744" spans="1:3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" s="2"/>
       <c r="C744" s="1"/>
     </row>
-    <row r="745" spans="1:3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" s="2"/>
       <c r="C745" s="1"/>
     </row>
-    <row r="746" spans="1:3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" s="2"/>
       <c r="C746" s="1"/>
     </row>
-    <row r="747" spans="1:3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" s="2"/>
       <c r="C747" s="1"/>
     </row>
-    <row r="748" spans="1:3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" s="2"/>
       <c r="C748" s="1"/>
     </row>
-    <row r="749" spans="1:3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" s="2"/>
       <c r="C749" s="1"/>
     </row>
-    <row r="750" spans="1:3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" s="2"/>
       <c r="C750" s="1"/>
     </row>
-    <row r="751" spans="1:3">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" s="2"/>
       <c r="C751" s="1"/>
     </row>
-    <row r="752" spans="1:3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" s="2"/>
       <c r="C752" s="1"/>
     </row>
-    <row r="753" spans="1:3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" s="2"/>
       <c r="C753" s="1"/>
     </row>
-    <row r="754" spans="1:3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" s="2"/>
       <c r="C754" s="1"/>
     </row>
-    <row r="755" spans="1:3">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" s="2"/>
       <c r="C755" s="1"/>
     </row>
-    <row r="756" spans="1:3">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" s="2"/>
       <c r="C756" s="1"/>
     </row>
-    <row r="757" spans="1:3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" s="2"/>
       <c r="C757" s="1"/>
     </row>
-    <row r="758" spans="1:3">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" s="2"/>
       <c r="C758" s="1"/>
     </row>
-    <row r="759" spans="1:3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" s="2"/>
       <c r="C759" s="1"/>
     </row>
-    <row r="760" spans="1:3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" s="2"/>
       <c r="C760" s="1"/>
     </row>
-    <row r="761" spans="1:3">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" s="2"/>
       <c r="C761" s="1"/>
     </row>
-    <row r="762" spans="1:3">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" s="2"/>
       <c r="C762" s="1"/>
     </row>
-    <row r="763" spans="1:3">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" s="2"/>
       <c r="C763" s="1"/>
     </row>
-    <row r="764" spans="1:3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" s="2"/>
       <c r="C764" s="1"/>
     </row>
-    <row r="765" spans="1:3">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" s="2"/>
       <c r="C765" s="1"/>
     </row>
-    <row r="766" spans="1:3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" s="2"/>
       <c r="C766" s="1"/>
     </row>
-    <row r="767" spans="1:3">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" s="2"/>
       <c r="C767" s="1"/>
     </row>
-    <row r="768" spans="1:3">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" s="2"/>
       <c r="C768" s="1"/>
     </row>
-    <row r="769" spans="1:3">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" s="2"/>
       <c r="C769" s="1"/>
     </row>
-    <row r="770" spans="1:3">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" s="2"/>
       <c r="C770" s="1"/>
     </row>
-    <row r="771" spans="1:3">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" s="2"/>
       <c r="C771" s="1"/>
     </row>
-    <row r="772" spans="1:3">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" s="2"/>
       <c r="C772" s="1"/>
     </row>
-    <row r="773" spans="1:3">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" s="2"/>
       <c r="C773" s="1"/>
     </row>
-    <row r="774" spans="1:3">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" s="2"/>
       <c r="C774" s="1"/>
     </row>
-    <row r="775" spans="1:3">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" s="2"/>
       <c r="C775" s="1"/>
     </row>
-    <row r="776" spans="1:3">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" s="2"/>
       <c r="C776" s="1"/>
     </row>
-    <row r="777" spans="1:3">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" s="2"/>
       <c r="C777" s="1"/>
     </row>
-    <row r="778" spans="1:3">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" s="2"/>
       <c r="C778" s="1"/>
     </row>
-    <row r="779" spans="1:3">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" s="2"/>
       <c r="C779" s="1"/>
     </row>
-    <row r="780" spans="1:3">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" s="2"/>
       <c r="C780" s="1"/>
     </row>
-    <row r="781" spans="1:3">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" s="2"/>
       <c r="C781" s="1"/>
     </row>
-    <row r="782" spans="1:3">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" s="2"/>
       <c r="C782" s="1"/>
     </row>
-    <row r="783" spans="1:3">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" s="2"/>
       <c r="C783" s="1"/>
     </row>
-    <row r="784" spans="1:3">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" s="2"/>
       <c r="C784" s="1"/>
     </row>
-    <row r="785" spans="1:3">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" s="2"/>
       <c r="C785" s="1"/>
     </row>
-    <row r="786" spans="1:3">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" s="2"/>
       <c r="C786" s="1"/>
     </row>
-    <row r="787" spans="1:3">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" s="2"/>
       <c r="C787" s="1"/>
     </row>
-    <row r="788" spans="1:3">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" s="2"/>
       <c r="C788" s="1"/>
     </row>
-    <row r="789" spans="1:3">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" s="2"/>
       <c r="C789" s="1"/>
     </row>
-    <row r="790" spans="1:3">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" s="2"/>
       <c r="C790" s="1"/>
     </row>
-    <row r="791" spans="1:3">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" s="2"/>
       <c r="C791" s="1"/>
     </row>
-    <row r="792" spans="1:3">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" s="2"/>
       <c r="C792" s="1"/>
     </row>
-    <row r="793" spans="1:3">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" s="2"/>
       <c r="C793" s="1"/>
     </row>
-    <row r="794" spans="1:3">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" s="2"/>
       <c r="C794" s="1"/>
     </row>
-    <row r="795" spans="1:3">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" s="2"/>
       <c r="C795" s="1"/>
     </row>
-    <row r="796" spans="1:3">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" s="2"/>
       <c r="C796" s="1"/>
     </row>
-    <row r="797" spans="1:3">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" s="2"/>
       <c r="C797" s="1"/>
     </row>
-    <row r="798" spans="1:3">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" s="2"/>
       <c r="C798" s="1"/>
     </row>
-    <row r="799" spans="1:3">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" s="2"/>
       <c r="C799" s="1"/>
     </row>
-    <row r="800" spans="1:3">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" s="2"/>
       <c r="C800" s="1"/>
     </row>
-    <row r="801" spans="1:3">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801" s="2"/>
       <c r="C801" s="1"/>
     </row>
-    <row r="802" spans="1:3">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802" s="2"/>
       <c r="C802" s="1"/>
     </row>
-    <row r="803" spans="1:3">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803" s="2"/>
       <c r="C803" s="1"/>
     </row>
-    <row r="804" spans="1:3">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" s="2"/>
       <c r="C804" s="1"/>
     </row>
-    <row r="805" spans="1:3">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805" s="2"/>
       <c r="C805" s="1"/>
     </row>
-    <row r="806" spans="1:3">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A806" s="2"/>
       <c r="C806" s="1"/>
     </row>
-    <row r="807" spans="1:3">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807" s="2"/>
       <c r="C807" s="1"/>
     </row>
-    <row r="808" spans="1:3">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A808" s="2"/>
       <c r="C808" s="1"/>
     </row>
-    <row r="809" spans="1:3">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A809" s="2"/>
       <c r="C809" s="1"/>
     </row>
-    <row r="810" spans="1:3">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A810" s="2"/>
       <c r="C810" s="1"/>
     </row>
-    <row r="811" spans="1:3">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A811" s="2"/>
       <c r="C811" s="1"/>
     </row>
-    <row r="812" spans="1:3">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A812" s="2"/>
       <c r="C812" s="1"/>
     </row>
-    <row r="813" spans="1:3">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A813" s="2"/>
       <c r="C813" s="1"/>
     </row>
-    <row r="814" spans="1:3">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A814" s="2"/>
       <c r="C814" s="1"/>
     </row>
-    <row r="815" spans="1:3">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A815" s="2"/>
       <c r="C815" s="1"/>
     </row>
-    <row r="816" spans="1:3">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A816" s="2"/>
       <c r="C816" s="1"/>
     </row>
-    <row r="817" spans="1:3">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" s="2"/>
       <c r="C817" s="1"/>
     </row>
-    <row r="818" spans="1:3">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818" s="2"/>
       <c r="C818" s="1"/>
     </row>
-    <row r="819" spans="1:3">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" s="2"/>
       <c r="C819" s="1"/>
     </row>
-    <row r="820" spans="1:3">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820" s="2"/>
       <c r="C820" s="1"/>
     </row>
-    <row r="821" spans="1:3">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A821" s="2"/>
       <c r="C821" s="1"/>
     </row>
-    <row r="822" spans="1:3">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A822" s="2"/>
       <c r="C822" s="1"/>
     </row>
-    <row r="823" spans="1:3">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823" s="2"/>
       <c r="C823" s="1"/>
     </row>
-    <row r="824" spans="1:3">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A824" s="2"/>
       <c r="C824" s="1"/>
     </row>
-    <row r="825" spans="1:3">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A825" s="2"/>
       <c r="C825" s="1"/>
     </row>
-    <row r="826" spans="1:3">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A826" s="2"/>
       <c r="C826" s="1"/>
     </row>
-    <row r="827" spans="1:3">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A827" s="2"/>
       <c r="C827" s="1"/>
     </row>
-    <row r="828" spans="1:3">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A828" s="2"/>
       <c r="C828" s="1"/>
     </row>
-    <row r="829" spans="1:3">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A829" s="2"/>
       <c r="C829" s="1"/>
     </row>
-    <row r="830" spans="1:3">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A830" s="2"/>
       <c r="C830" s="1"/>
     </row>
-    <row r="831" spans="1:3">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A831" s="2"/>
       <c r="C831" s="1"/>
     </row>
-    <row r="832" spans="1:3">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A832" s="2"/>
       <c r="C832" s="1"/>
     </row>
-    <row r="833" spans="1:3">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A833" s="2"/>
       <c r="C833" s="1"/>
     </row>
-    <row r="834" spans="1:3">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A834" s="2"/>
       <c r="C834" s="1"/>
     </row>
-    <row r="835" spans="1:3">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A835" s="2"/>
       <c r="C835" s="1"/>
     </row>
-    <row r="836" spans="1:3">
+    <row r="836" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A836" s="2"/>
       <c r="C836" s="1"/>
     </row>
-    <row r="837" spans="1:3">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A837" s="2"/>
       <c r="C837" s="1"/>
     </row>
-    <row r="838" spans="1:3">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A838" s="2"/>
       <c r="C838" s="1"/>
     </row>
-    <row r="839" spans="1:3">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A839" s="2"/>
       <c r="C839" s="1"/>
     </row>
-    <row r="840" spans="1:3">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A840" s="2"/>
       <c r="C840" s="1"/>
     </row>
-    <row r="841" spans="1:3">
+    <row r="841" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A841" s="2"/>
       <c r="C841" s="1"/>
     </row>
-    <row r="842" spans="1:3">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A842" s="2"/>
       <c r="C842" s="1"/>
     </row>
-    <row r="843" spans="1:3">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A843" s="2"/>
       <c r="C843" s="1"/>
     </row>
-    <row r="844" spans="1:3">
+    <row r="844" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A844" s="2"/>
       <c r="C844" s="1"/>
     </row>
-    <row r="845" spans="1:3">
+    <row r="845" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A845" s="2"/>
       <c r="C845" s="1"/>
     </row>
-    <row r="846" spans="1:3">
+    <row r="846" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A846" s="2"/>
       <c r="C846" s="1"/>
     </row>
-    <row r="847" spans="1:3">
+    <row r="847" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A847" s="2"/>
       <c r="C847" s="1"/>
     </row>
-    <row r="848" spans="1:3">
+    <row r="848" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A848" s="2"/>
       <c r="C848" s="1"/>
     </row>
-    <row r="849" spans="1:3">
+    <row r="849" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A849" s="2"/>
       <c r="C849" s="1"/>
     </row>
-    <row r="850" spans="1:3">
+    <row r="850" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A850" s="2"/>
       <c r="C850" s="1"/>
     </row>
-    <row r="851" spans="1:3">
+    <row r="851" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A851" s="2"/>
       <c r="C851" s="1"/>
     </row>
-    <row r="852" spans="1:3">
+    <row r="852" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A852" s="2"/>
       <c r="C852" s="1"/>
     </row>
-    <row r="853" spans="1:3">
+    <row r="853" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A853" s="2"/>
       <c r="C853" s="1"/>
     </row>
-    <row r="854" spans="1:3">
+    <row r="854" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A854" s="2"/>
       <c r="C854" s="1"/>
     </row>
-    <row r="855" spans="1:3">
+    <row r="855" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A855" s="2"/>
       <c r="C855" s="1"/>
     </row>
-    <row r="856" spans="1:3">
+    <row r="856" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A856" s="2"/>
       <c r="C856" s="1"/>
     </row>
-    <row r="857" spans="1:3">
+    <row r="857" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A857" s="2"/>
       <c r="C857" s="1"/>
     </row>
-    <row r="858" spans="1:3">
+    <row r="858" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A858" s="2"/>
       <c r="C858" s="1"/>
     </row>
-    <row r="859" spans="1:3">
+    <row r="859" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A859" s="2"/>
       <c r="C859" s="1"/>
     </row>
-    <row r="860" spans="1:3">
+    <row r="860" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A860" s="2"/>
       <c r="C860" s="1"/>
     </row>
-    <row r="861" spans="1:3">
+    <row r="861" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A861" s="2"/>
       <c r="C861" s="1"/>
     </row>
-    <row r="862" spans="1:3">
+    <row r="862" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A862" s="2"/>
       <c r="C862" s="1"/>
     </row>
-    <row r="863" spans="1:3">
+    <row r="863" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A863" s="2"/>
       <c r="C863" s="1"/>
     </row>
-    <row r="864" spans="1:3">
+    <row r="864" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A864" s="2"/>
       <c r="C864" s="1"/>
     </row>
-    <row r="865" spans="1:3">
+    <row r="865" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A865" s="2"/>
       <c r="C865" s="1"/>
     </row>
-    <row r="866" spans="1:3">
+    <row r="866" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A866" s="2"/>
       <c r="C866" s="1"/>
     </row>
-    <row r="867" spans="1:3">
+    <row r="867" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A867" s="2"/>
       <c r="C867" s="1"/>
     </row>
-    <row r="868" spans="1:3">
+    <row r="868" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A868" s="2"/>
       <c r="C868" s="1"/>
     </row>
-    <row r="869" spans="1:3">
+    <row r="869" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A869" s="2"/>
       <c r="C869" s="1"/>
     </row>
-    <row r="870" spans="1:3">
+    <row r="870" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A870" s="2"/>
       <c r="C870" s="1"/>
     </row>
-    <row r="871" spans="1:3">
+    <row r="871" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A871" s="2"/>
       <c r="C871" s="1"/>
     </row>
-    <row r="872" spans="1:3">
+    <row r="872" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A872" s="2"/>
       <c r="C872" s="1"/>
     </row>
-    <row r="873" spans="1:3">
+    <row r="873" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A873" s="2"/>
       <c r="C873" s="1"/>
     </row>
-    <row r="874" spans="1:3">
+    <row r="874" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A874" s="2"/>
       <c r="C874" s="1"/>
     </row>
-    <row r="875" spans="1:3">
+    <row r="875" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A875" s="2"/>
       <c r="C875" s="1"/>
     </row>
-    <row r="876" spans="1:3">
+    <row r="876" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A876" s="2"/>
       <c r="C876" s="1"/>
     </row>
@@ -6592,24 +6589,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
